--- a/Rayna/2013/data/02_qPCRdata.xlsx
+++ b/Rayna/2013/data/02_qPCRdata.xlsx
@@ -1,26 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="26709"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\NSB_2014\3_Int Mol Neuro\Hofmann Fenton Collaboration\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/raynamharris/Github/qPCR-mouse/Rayna/2013/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-45" yWindow="150" windowWidth="10665" windowHeight="13095"/>
+    <workbookView xWindow="5940" yWindow="540" windowWidth="22780" windowHeight="14900"/>
   </bookViews>
   <sheets>
     <sheet name="samples" sheetId="1" r:id="rId1"/>
     <sheet name="conrols" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2105" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1561" uniqueCount="82">
   <si>
     <t>Sample Name</t>
   </si>
@@ -79,51 +84,6 @@
     <t>NA</t>
   </si>
   <si>
-    <t>bb</t>
-  </si>
-  <si>
-    <t>c</t>
-  </si>
-  <si>
-    <t>n</t>
-  </si>
-  <si>
-    <t>f</t>
-  </si>
-  <si>
-    <t>ab</t>
-  </si>
-  <si>
-    <t>m</t>
-  </si>
-  <si>
-    <t>g</t>
-  </si>
-  <si>
-    <t>k</t>
-  </si>
-  <si>
-    <t>h</t>
-  </si>
-  <si>
-    <t>i</t>
-  </si>
-  <si>
-    <t>a</t>
-  </si>
-  <si>
-    <t>aa</t>
-  </si>
-  <si>
-    <t>e</t>
-  </si>
-  <si>
-    <t>l</t>
-  </si>
-  <si>
-    <t>j</t>
-  </si>
-  <si>
     <t>wt</t>
   </si>
   <si>
@@ -146,12 +106,6 @@
   </si>
   <si>
     <t>control</t>
-  </si>
-  <si>
-    <t xml:space="preserve">b </t>
-  </si>
-  <si>
-    <t>a wt</t>
   </si>
   <si>
     <t>trained</t>
@@ -211,9 +165,6 @@
     <t>CA3</t>
   </si>
   <si>
-    <t>train</t>
-  </si>
-  <si>
     <t>BL 8</t>
   </si>
   <si>
@@ -265,61 +216,61 @@
     <t>BL 2</t>
   </si>
   <si>
-    <t>BL11</t>
+    <t>FMR1 A</t>
   </si>
   <si>
-    <t>BL7</t>
+    <t>FMR1 AA</t>
   </si>
   <si>
-    <t>BL2</t>
+    <t>FMR1 B</t>
   </si>
   <si>
-    <t>BL16</t>
+    <t>FMR1 C</t>
   </si>
   <si>
-    <t>BL19</t>
+    <t>FMR1 E</t>
   </si>
   <si>
-    <t>BL3</t>
+    <t>FMR1 F</t>
   </si>
   <si>
-    <t>BL13</t>
+    <t>FMR1 G</t>
   </si>
   <si>
-    <t>BL4</t>
+    <t>FMR1 H</t>
   </si>
   <si>
-    <t>BL12</t>
+    <t>FMR1 I</t>
   </si>
   <si>
-    <t>BL10</t>
+    <t>FMR1 J</t>
   </si>
   <si>
-    <t>BL8</t>
+    <t>FMR1 K</t>
   </si>
   <si>
-    <t>BL1</t>
+    <t>FMR1 L</t>
   </si>
   <si>
-    <t>BL15</t>
+    <t>FMR1 M</t>
   </si>
   <si>
-    <t>BL9</t>
+    <t>FMR1 N</t>
   </si>
   <si>
-    <t>BL5</t>
+    <t>BL A</t>
   </si>
   <si>
-    <t>BL18</t>
+    <t>BL AB</t>
   </si>
   <si>
-    <t>BL14</t>
+    <t>BL BB</t>
   </si>
   <si>
-    <t>BL17</t>
+    <t>BL 16</t>
   </si>
   <si>
-    <t>BL6</t>
+    <t>BL 17</t>
   </si>
 </sst>
 </file>
@@ -426,9 +377,9 @@
         <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -461,9 +412,9 @@
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -667,40 +618,40 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S196"/>
+  <dimension ref="A1:S160"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2:A196"/>
+      <pane ySplit="1" topLeftCell="A140" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G152" sqref="G152"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="7.5703125" customWidth="1"/>
-    <col min="3" max="3" width="4.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.59765625" customWidth="1"/>
+    <col min="3" max="3" width="4.3984375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.5703125" customWidth="1"/>
-    <col min="6" max="6" width="7.7109375" customWidth="1"/>
+    <col min="5" max="5" width="7.59765625" customWidth="1"/>
+    <col min="6" max="6" width="7.796875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="B1" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="C1" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="D1" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="E1" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="F1" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="G1" t="s">
         <v>11</v>
@@ -718,25 +669,25 @@
         <v>12</v>
       </c>
       <c r="L1" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="M1" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="N1" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="O1" t="s">
-        <v>57</v>
+        <v>40</v>
       </c>
       <c r="P1" t="s">
-        <v>58</v>
+        <v>41</v>
       </c>
       <c r="Q1" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="R1" t="s">
-        <v>60</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.2">
@@ -744,16 +695,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>29</v>
+        <v>63</v>
       </c>
       <c r="C2" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="D2" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="E2" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="F2" t="s">
         <v>12</v>
@@ -800,16 +751,16 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>29</v>
+        <v>63</v>
       </c>
       <c r="C3" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="D3" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="E3" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="F3" t="s">
         <v>12</v>
@@ -856,16 +807,16 @@
         <v>1</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>29</v>
+        <v>63</v>
       </c>
       <c r="C4" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="D4" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="E4" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="F4" t="s">
         <v>12</v>
@@ -912,19 +863,19 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="C5" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="D5" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="F5" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="G5">
         <v>35.108734130859375</v>
@@ -960,7 +911,7 @@
         <v>18</v>
       </c>
       <c r="R5">
-        <v>35.920364379882813</v>
+        <v>35.920364379882812</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.2">
@@ -968,19 +919,19 @@
         <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="C6" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="D6" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="F6" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="G6">
         <v>35.328639984130859</v>
@@ -989,13 +940,13 @@
         <v>33.780467987060547</v>
       </c>
       <c r="I6">
-        <v>26.119400024414063</v>
+        <v>26.119400024414062</v>
       </c>
       <c r="J6">
         <v>29.673652648925781</v>
       </c>
       <c r="K6">
-        <v>34.904342651367187</v>
+        <v>34.904342651367188</v>
       </c>
       <c r="L6">
         <v>32.706493377685547</v>
@@ -1024,19 +975,19 @@
         <v>2</v>
       </c>
       <c r="B7" t="s">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="C7" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="D7" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="F7" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="G7">
         <v>35.020774841308594</v>
@@ -1080,16 +1031,16 @@
         <v>3</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>30</v>
+        <v>64</v>
       </c>
       <c r="C8" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="D8" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="E8" t="s">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="F8" t="s">
         <v>12</v>
@@ -1136,16 +1087,16 @@
         <v>3</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>30</v>
+        <v>64</v>
       </c>
       <c r="C9" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="D9" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="E9" t="s">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="F9" t="s">
         <v>12</v>
@@ -1192,16 +1143,16 @@
         <v>3</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>30</v>
+        <v>64</v>
       </c>
       <c r="C10" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="D10" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="E10" t="s">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="F10" t="s">
         <v>12</v>
@@ -1248,19 +1199,19 @@
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>23</v>
+        <v>78</v>
       </c>
       <c r="C11" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="D11" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="E11" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="F11" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="G11">
         <v>35.600315093994141</v>
@@ -1269,7 +1220,7 @@
         <v>35.055347442626953</v>
       </c>
       <c r="I11">
-        <v>26.187149047851563</v>
+        <v>26.187149047851562</v>
       </c>
       <c r="J11">
         <v>30.868658065795898</v>
@@ -1304,19 +1255,19 @@
         <v>4</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>23</v>
+        <v>78</v>
       </c>
       <c r="C12" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="D12" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="E12" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="F12" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="G12">
         <v>36.072086334228516</v>
@@ -1340,7 +1291,7 @@
         <v>36.754405975341797</v>
       </c>
       <c r="N12">
-        <v>33.003952026367187</v>
+        <v>33.003952026367188</v>
       </c>
       <c r="O12">
         <v>34.732578277587891</v>
@@ -1360,19 +1311,19 @@
         <v>4</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>23</v>
+        <v>78</v>
       </c>
       <c r="C13" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="D13" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="E13" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="F13" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="G13">
         <v>36.794158935546875</v>
@@ -1396,7 +1347,7 @@
         <v>35.223045349121094</v>
       </c>
       <c r="N13">
-        <v>32.604873657226563</v>
+        <v>32.604873657226562</v>
       </c>
       <c r="O13">
         <v>34.928279876708984</v>
@@ -1416,16 +1367,16 @@
         <v>5</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>42</v>
+        <v>65</v>
       </c>
       <c r="C14" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="D14" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="E14" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="F14" t="s">
         <v>12</v>
@@ -1472,16 +1423,16 @@
         <v>5</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>42</v>
+        <v>65</v>
       </c>
       <c r="C15" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="D15" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="E15" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="F15" t="s">
         <v>12</v>
@@ -1528,16 +1479,16 @@
         <v>5</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>42</v>
+        <v>65</v>
       </c>
       <c r="C16" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="D16" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="E16" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="F16" t="s">
         <v>12</v>
@@ -1584,19 +1535,19 @@
         <v>6</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>19</v>
+        <v>79</v>
       </c>
       <c r="C17" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="D17" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="E17" t="s">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="F17" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="G17">
         <v>36.259029388427734</v>
@@ -1640,22 +1591,22 @@
         <v>6</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>19</v>
+        <v>79</v>
       </c>
       <c r="C18" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="D18" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="E18" t="s">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="F18" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="G18">
-        <v>36.740493774414063</v>
+        <v>36.740493774414062</v>
       </c>
       <c r="H18">
         <v>34.412384033203125</v>
@@ -1679,7 +1630,7 @@
         <v>32.421199798583984</v>
       </c>
       <c r="O18">
-        <v>34.199417114257813</v>
+        <v>34.199417114257812</v>
       </c>
       <c r="P18">
         <v>32.697853088378906</v>
@@ -1696,19 +1647,19 @@
         <v>6</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>19</v>
+        <v>79</v>
       </c>
       <c r="C19" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="D19" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="E19" t="s">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="F19" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="G19">
         <v>35.01171875</v>
@@ -1752,16 +1703,16 @@
         <v>7</v>
       </c>
       <c r="B20" t="s">
-        <v>20</v>
+        <v>66</v>
       </c>
       <c r="C20" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="D20" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="E20" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="F20" t="s">
         <v>12</v>
@@ -1785,7 +1736,7 @@
         <v>30.177984237670898</v>
       </c>
       <c r="M20">
-        <v>32.352523803710937</v>
+        <v>32.352523803710938</v>
       </c>
       <c r="N20">
         <v>28.43951416015625</v>
@@ -1794,7 +1745,7 @@
         <v>30.622989654541016</v>
       </c>
       <c r="P20">
-        <v>30.044906616210937</v>
+        <v>30.044906616210938</v>
       </c>
       <c r="Q20">
         <v>27.19781494140625</v>
@@ -1808,16 +1759,16 @@
         <v>7</v>
       </c>
       <c r="B21" t="s">
-        <v>20</v>
+        <v>66</v>
       </c>
       <c r="C21" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="D21" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="E21" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="F21" t="s">
         <v>12</v>
@@ -1864,16 +1815,16 @@
         <v>7</v>
       </c>
       <c r="B22" t="s">
-        <v>20</v>
+        <v>66</v>
       </c>
       <c r="C22" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="D22" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="E22" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="F22" t="s">
         <v>12</v>
@@ -1888,7 +1839,7 @@
         <v>18</v>
       </c>
       <c r="J22">
-        <v>28.487197875976563</v>
+        <v>28.487197875976562</v>
       </c>
       <c r="K22">
         <v>32.785877227783203</v>
@@ -1920,16 +1871,16 @@
         <v>8</v>
       </c>
       <c r="B23" t="s">
-        <v>31</v>
+        <v>67</v>
       </c>
       <c r="C23" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="D23" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="E23" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="F23" t="s">
         <v>12</v>
@@ -1976,16 +1927,16 @@
         <v>8</v>
       </c>
       <c r="B24" t="s">
-        <v>31</v>
+        <v>67</v>
       </c>
       <c r="C24" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="D24" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="E24" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="F24" t="s">
         <v>12</v>
@@ -2032,16 +1983,16 @@
         <v>8</v>
       </c>
       <c r="B25" t="s">
-        <v>31</v>
+        <v>67</v>
       </c>
       <c r="C25" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="D25" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="E25" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="F25" t="s">
         <v>12</v>
@@ -2062,7 +2013,7 @@
         <v>35.07122802734375</v>
       </c>
       <c r="L25">
-        <v>33.112777709960937</v>
+        <v>33.112777709960938</v>
       </c>
       <c r="M25">
         <v>33.834575653076172</v>
@@ -2088,22 +2039,22 @@
         <v>9</v>
       </c>
       <c r="B26" t="s">
-        <v>22</v>
+        <v>68</v>
       </c>
       <c r="C26" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="D26" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="E26" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="F26" t="s">
         <v>12</v>
       </c>
       <c r="G26">
-        <v>33.996658325195313</v>
+        <v>33.996658325195312</v>
       </c>
       <c r="H26">
         <v>34.807430267333984</v>
@@ -2127,7 +2078,7 @@
         <v>31.984367370605469</v>
       </c>
       <c r="O26">
-        <v>32.675308227539063</v>
+        <v>32.675308227539062</v>
       </c>
       <c r="P26">
         <v>32.818462371826172</v>
@@ -2144,16 +2095,16 @@
         <v>9</v>
       </c>
       <c r="B27" t="s">
-        <v>22</v>
+        <v>68</v>
       </c>
       <c r="C27" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="D27" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="E27" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="F27" t="s">
         <v>12</v>
@@ -2177,7 +2128,7 @@
         <v>31.92656135559082</v>
       </c>
       <c r="M27">
-        <v>33.418838500976563</v>
+        <v>33.418838500976562</v>
       </c>
       <c r="N27">
         <v>32.160690307617188</v>
@@ -2200,16 +2151,16 @@
         <v>9</v>
       </c>
       <c r="B28" t="s">
-        <v>22</v>
+        <v>68</v>
       </c>
       <c r="C28" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="D28" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="E28" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="F28" t="s">
         <v>12</v>
@@ -2245,7 +2196,7 @@
         <v>32.524734497070312</v>
       </c>
       <c r="Q28">
-        <v>31.378463745117187</v>
+        <v>31.378463745117188</v>
       </c>
       <c r="R28">
         <v>34.147350311279297</v>
@@ -2256,16 +2207,16 @@
         <v>10</v>
       </c>
       <c r="B29" t="s">
-        <v>25</v>
+        <v>69</v>
       </c>
       <c r="C29" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="D29" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="E29" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="F29" t="s">
         <v>12</v>
@@ -2295,7 +2246,7 @@
         <v>-1</v>
       </c>
       <c r="O29">
-        <v>35.406997680664063</v>
+        <v>35.406997680664062</v>
       </c>
       <c r="P29">
         <v>35.959499359130859</v>
@@ -2312,16 +2263,16 @@
         <v>10</v>
       </c>
       <c r="B30" t="s">
-        <v>25</v>
+        <v>69</v>
       </c>
       <c r="C30" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="D30" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="E30" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="F30" t="s">
         <v>12</v>
@@ -2368,16 +2319,16 @@
         <v>10</v>
       </c>
       <c r="B31" t="s">
-        <v>25</v>
+        <v>69</v>
       </c>
       <c r="C31" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="D31" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="F31" t="s">
         <v>12</v>
@@ -2410,10 +2361,10 @@
         <v>-1</v>
       </c>
       <c r="P31">
-        <v>36.228652954101563</v>
+        <v>36.228652954101562</v>
       </c>
       <c r="Q31">
-        <v>34.614700317382813</v>
+        <v>34.614700317382812</v>
       </c>
       <c r="R31">
         <v>-1</v>
@@ -2424,16 +2375,16 @@
         <v>11</v>
       </c>
       <c r="B32" t="s">
+        <v>70</v>
+      </c>
+      <c r="C32" t="s">
+        <v>29</v>
+      </c>
+      <c r="D32" t="s">
+        <v>30</v>
+      </c>
+      <c r="E32" t="s">
         <v>27</v>
-      </c>
-      <c r="C32" t="s">
-        <v>46</v>
-      </c>
-      <c r="D32" t="s">
-        <v>47</v>
-      </c>
-      <c r="E32" t="s">
-        <v>44</v>
       </c>
       <c r="F32" t="s">
         <v>12</v>
@@ -2480,16 +2431,16 @@
         <v>11</v>
       </c>
       <c r="B33" t="s">
+        <v>70</v>
+      </c>
+      <c r="C33" t="s">
+        <v>29</v>
+      </c>
+      <c r="D33" t="s">
+        <v>30</v>
+      </c>
+      <c r="E33" t="s">
         <v>27</v>
-      </c>
-      <c r="C33" t="s">
-        <v>46</v>
-      </c>
-      <c r="D33" t="s">
-        <v>47</v>
-      </c>
-      <c r="E33" t="s">
-        <v>44</v>
       </c>
       <c r="F33" t="s">
         <v>12</v>
@@ -2536,16 +2487,16 @@
         <v>11</v>
       </c>
       <c r="B34" t="s">
+        <v>70</v>
+      </c>
+      <c r="C34" t="s">
+        <v>29</v>
+      </c>
+      <c r="D34" t="s">
+        <v>30</v>
+      </c>
+      <c r="E34" t="s">
         <v>27</v>
-      </c>
-      <c r="C34" t="s">
-        <v>46</v>
-      </c>
-      <c r="D34" t="s">
-        <v>47</v>
-      </c>
-      <c r="E34" t="s">
-        <v>44</v>
       </c>
       <c r="F34" t="s">
         <v>12</v>
@@ -2566,7 +2517,7 @@
         <v>35.413982391357422</v>
       </c>
       <c r="L34">
-        <v>34.320327758789063</v>
+        <v>34.320327758789062</v>
       </c>
       <c r="M34">
         <v>-1</v>
@@ -2592,16 +2543,16 @@
         <v>12</v>
       </c>
       <c r="B35" t="s">
-        <v>28</v>
+        <v>71</v>
       </c>
       <c r="C35" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="D35" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="E35" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="F35" t="s">
         <v>12</v>
@@ -2648,16 +2599,16 @@
         <v>12</v>
       </c>
       <c r="B36" t="s">
-        <v>28</v>
+        <v>71</v>
       </c>
       <c r="C36" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="D36" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="E36" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="F36" t="s">
         <v>12</v>
@@ -2704,16 +2655,16 @@
         <v>12</v>
       </c>
       <c r="B37" t="s">
-        <v>28</v>
+        <v>71</v>
       </c>
       <c r="C37" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="D37" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="E37" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="F37" t="s">
         <v>12</v>
@@ -2734,7 +2685,7 @@
         <v>-1</v>
       </c>
       <c r="L37">
-        <v>33.138046264648437</v>
+        <v>33.138046264648438</v>
       </c>
       <c r="M37">
         <v>32.708297729492188</v>
@@ -2743,7 +2694,7 @@
         <v>31.931516647338867</v>
       </c>
       <c r="O37">
-        <v>32.667007446289063</v>
+        <v>32.667007446289062</v>
       </c>
       <c r="P37">
         <v>31.42938232421875</v>
@@ -2760,16 +2711,16 @@
         <v>13</v>
       </c>
       <c r="B38" t="s">
-        <v>33</v>
+        <v>72</v>
       </c>
       <c r="C38" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="D38" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="E38" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="F38" t="s">
         <v>12</v>
@@ -2816,16 +2767,16 @@
         <v>13</v>
       </c>
       <c r="B39" t="s">
-        <v>33</v>
+        <v>72</v>
       </c>
       <c r="C39" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="D39" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="E39" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="F39" t="s">
         <v>12</v>
@@ -2872,16 +2823,16 @@
         <v>13</v>
       </c>
       <c r="B40" t="s">
-        <v>33</v>
+        <v>72</v>
       </c>
       <c r="C40" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="D40" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="E40" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="F40" t="s">
         <v>12</v>
@@ -2905,7 +2856,7 @@
         <v>18</v>
       </c>
       <c r="M40">
-        <v>35.801834106445313</v>
+        <v>35.801834106445312</v>
       </c>
       <c r="N40">
         <v>35.047267913818359</v>
@@ -2928,16 +2879,16 @@
         <v>14</v>
       </c>
       <c r="B41" t="s">
+        <v>73</v>
+      </c>
+      <c r="C41" t="s">
+        <v>29</v>
+      </c>
+      <c r="D41" t="s">
+        <v>30</v>
+      </c>
+      <c r="E41" t="s">
         <v>26</v>
-      </c>
-      <c r="C41" t="s">
-        <v>46</v>
-      </c>
-      <c r="D41" t="s">
-        <v>47</v>
-      </c>
-      <c r="E41" t="s">
-        <v>41</v>
       </c>
       <c r="F41" t="s">
         <v>12</v>
@@ -2984,16 +2935,16 @@
         <v>14</v>
       </c>
       <c r="B42" t="s">
+        <v>73</v>
+      </c>
+      <c r="C42" t="s">
+        <v>29</v>
+      </c>
+      <c r="D42" t="s">
+        <v>30</v>
+      </c>
+      <c r="E42" t="s">
         <v>26</v>
-      </c>
-      <c r="C42" t="s">
-        <v>46</v>
-      </c>
-      <c r="D42" t="s">
-        <v>47</v>
-      </c>
-      <c r="E42" t="s">
-        <v>41</v>
       </c>
       <c r="F42" t="s">
         <v>12</v>
@@ -3040,16 +2991,16 @@
         <v>14</v>
       </c>
       <c r="B43" t="s">
+        <v>73</v>
+      </c>
+      <c r="C43" t="s">
+        <v>29</v>
+      </c>
+      <c r="D43" t="s">
+        <v>30</v>
+      </c>
+      <c r="E43" t="s">
         <v>26</v>
-      </c>
-      <c r="C43" t="s">
-        <v>46</v>
-      </c>
-      <c r="D43" t="s">
-        <v>47</v>
-      </c>
-      <c r="E43" t="s">
-        <v>41</v>
       </c>
       <c r="F43" t="s">
         <v>12</v>
@@ -3073,7 +3024,7 @@
         <v>32.539329528808594</v>
       </c>
       <c r="M43">
-        <v>35.085464477539063</v>
+        <v>35.085464477539062</v>
       </c>
       <c r="N43" t="s">
         <v>18</v>
@@ -3082,7 +3033,7 @@
         <v>18</v>
       </c>
       <c r="P43">
-        <v>32.214675903320313</v>
+        <v>32.214675903320312</v>
       </c>
       <c r="Q43" t="s">
         <v>18</v>
@@ -3096,16 +3047,16 @@
         <v>15</v>
       </c>
       <c r="B44" t="s">
-        <v>32</v>
+        <v>74</v>
       </c>
       <c r="C44" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="D44" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="E44" t="s">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="F44" t="s">
         <v>12</v>
@@ -3152,16 +3103,16 @@
         <v>15</v>
       </c>
       <c r="B45" t="s">
-        <v>32</v>
+        <v>74</v>
       </c>
       <c r="C45" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="D45" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="E45" t="s">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="F45" t="s">
         <v>12</v>
@@ -3208,16 +3159,16 @@
         <v>15</v>
       </c>
       <c r="B46" t="s">
-        <v>32</v>
+        <v>74</v>
       </c>
       <c r="C46" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="D46" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="E46" t="s">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="F46" t="s">
         <v>12</v>
@@ -3264,16 +3215,16 @@
         <v>16</v>
       </c>
       <c r="B47" t="s">
-        <v>24</v>
+        <v>75</v>
       </c>
       <c r="C47" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="D47" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="E47" t="s">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="F47" t="s">
         <v>12</v>
@@ -3320,16 +3271,16 @@
         <v>16</v>
       </c>
       <c r="B48" t="s">
-        <v>24</v>
+        <v>75</v>
       </c>
       <c r="C48" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="D48" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="E48" t="s">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="F48" t="s">
         <v>12</v>
@@ -3376,16 +3327,16 @@
         <v>16</v>
       </c>
       <c r="B49" t="s">
-        <v>24</v>
+        <v>75</v>
       </c>
       <c r="C49" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="D49" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="E49" t="s">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="F49" t="s">
         <v>12</v>
@@ -3403,7 +3354,7 @@
         <v>28.733028411865234</v>
       </c>
       <c r="K49">
-        <v>34.696243286132813</v>
+        <v>34.696243286132812</v>
       </c>
       <c r="L49">
         <v>32.258956909179688</v>
@@ -3432,16 +3383,16 @@
         <v>17</v>
       </c>
       <c r="B50" t="s">
-        <v>21</v>
+        <v>76</v>
       </c>
       <c r="C50" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="D50" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="E50" t="s">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="F50" t="s">
         <v>12</v>
@@ -3488,16 +3439,16 @@
         <v>17</v>
       </c>
       <c r="B51" t="s">
-        <v>21</v>
+        <v>76</v>
       </c>
       <c r="C51" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="D51" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="E51" t="s">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="F51" t="s">
         <v>12</v>
@@ -3527,7 +3478,7 @@
         <v>31.392925262451172</v>
       </c>
       <c r="O51">
-        <v>32.792984008789063</v>
+        <v>32.792984008789062</v>
       </c>
       <c r="P51">
         <v>31.84174919128418</v>
@@ -3544,16 +3495,16 @@
         <v>17</v>
       </c>
       <c r="B52" t="s">
-        <v>21</v>
+        <v>76</v>
       </c>
       <c r="C52" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="D52" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="E52" t="s">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="F52" t="s">
         <v>12</v>
@@ -3600,19 +3551,19 @@
         <v>18</v>
       </c>
       <c r="B53" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="C53" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="D53" t="s">
-        <v>62</v>
+        <v>45</v>
       </c>
       <c r="E53" t="s">
-        <v>63</v>
+        <v>27</v>
       </c>
       <c r="F53" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="G53">
         <v>36.135181430000003</v>
@@ -3656,19 +3607,19 @@
         <v>18</v>
       </c>
       <c r="B54" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="C54" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="D54" t="s">
-        <v>62</v>
+        <v>45</v>
       </c>
       <c r="E54" t="s">
-        <v>63</v>
+        <v>27</v>
       </c>
       <c r="F54" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="G54">
         <v>-1</v>
@@ -3712,19 +3663,19 @@
         <v>18</v>
       </c>
       <c r="B55" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="C55" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="D55" t="s">
-        <v>62</v>
+        <v>45</v>
       </c>
       <c r="E55" t="s">
-        <v>63</v>
+        <v>27</v>
       </c>
       <c r="F55" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="G55">
         <v>35.935745240000003</v>
@@ -3768,19 +3719,19 @@
         <v>19</v>
       </c>
       <c r="B56" t="s">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="C56" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="D56" t="s">
-        <v>62</v>
+        <v>45</v>
       </c>
       <c r="E56" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="F56" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="G56">
         <v>34.273551939999997</v>
@@ -3824,19 +3775,19 @@
         <v>19</v>
       </c>
       <c r="B57" t="s">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="C57" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="D57" t="s">
-        <v>62</v>
+        <v>45</v>
       </c>
       <c r="E57" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="F57" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="G57">
         <v>34.34864426</v>
@@ -3880,19 +3831,19 @@
         <v>19</v>
       </c>
       <c r="B58" t="s">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="C58" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="D58" t="s">
-        <v>62</v>
+        <v>45</v>
       </c>
       <c r="E58" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="F58" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="G58">
         <v>34.956134800000001</v>
@@ -3936,19 +3887,19 @@
         <v>20</v>
       </c>
       <c r="B59" t="s">
-        <v>65</v>
+        <v>47</v>
       </c>
       <c r="C59" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="D59" t="s">
-        <v>62</v>
+        <v>45</v>
       </c>
       <c r="E59" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="F59" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="G59">
         <v>33.863613129999997</v>
@@ -3992,19 +3943,19 @@
         <v>20</v>
       </c>
       <c r="B60" t="s">
-        <v>65</v>
+        <v>47</v>
       </c>
       <c r="C60" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="D60" t="s">
-        <v>62</v>
+        <v>45</v>
       </c>
       <c r="E60" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="F60" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="G60">
         <v>33.742084499999997</v>
@@ -4048,19 +3999,19 @@
         <v>20</v>
       </c>
       <c r="B61" t="s">
-        <v>65</v>
+        <v>47</v>
       </c>
       <c r="C61" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="D61" t="s">
-        <v>62</v>
+        <v>45</v>
       </c>
       <c r="E61" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="F61" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="G61">
         <v>34.380901340000001</v>
@@ -4104,19 +4055,19 @@
         <v>21</v>
       </c>
       <c r="B62" t="s">
-        <v>66</v>
+        <v>48</v>
       </c>
       <c r="C62" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="D62" t="s">
-        <v>62</v>
+        <v>45</v>
       </c>
       <c r="E62" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="F62" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="G62">
         <v>33.615333560000003</v>
@@ -4160,19 +4111,19 @@
         <v>21</v>
       </c>
       <c r="B63" t="s">
-        <v>66</v>
+        <v>48</v>
       </c>
       <c r="C63" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="D63" t="s">
-        <v>62</v>
+        <v>45</v>
       </c>
       <c r="E63" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="F63" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="G63">
         <v>33.339542389999998</v>
@@ -4216,19 +4167,19 @@
         <v>21</v>
       </c>
       <c r="B64" t="s">
-        <v>66</v>
+        <v>48</v>
       </c>
       <c r="C64" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="D64" t="s">
-        <v>62</v>
+        <v>45</v>
       </c>
       <c r="E64" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="F64" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="G64">
         <v>33.536422729999998</v>
@@ -4272,19 +4223,19 @@
         <v>22</v>
       </c>
       <c r="B65" t="s">
-        <v>67</v>
+        <v>49</v>
       </c>
       <c r="C65" t="s">
-        <v>68</v>
+        <v>50</v>
       </c>
       <c r="D65" t="s">
-        <v>62</v>
+        <v>45</v>
       </c>
       <c r="E65" t="s">
-        <v>63</v>
+        <v>27</v>
       </c>
       <c r="F65" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="G65">
         <v>34.837253570000001</v>
@@ -4328,19 +4279,19 @@
         <v>22</v>
       </c>
       <c r="B66" t="s">
-        <v>67</v>
+        <v>49</v>
       </c>
       <c r="C66" t="s">
-        <v>68</v>
+        <v>50</v>
       </c>
       <c r="D66" t="s">
-        <v>62</v>
+        <v>45</v>
       </c>
       <c r="E66" t="s">
-        <v>63</v>
+        <v>27</v>
       </c>
       <c r="F66" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="G66">
         <v>34.088939670000002</v>
@@ -4384,19 +4335,19 @@
         <v>22</v>
       </c>
       <c r="B67" t="s">
-        <v>67</v>
+        <v>49</v>
       </c>
       <c r="C67" t="s">
-        <v>68</v>
+        <v>50</v>
       </c>
       <c r="D67" t="s">
-        <v>62</v>
+        <v>45</v>
       </c>
       <c r="E67" t="s">
-        <v>63</v>
+        <v>27</v>
       </c>
       <c r="F67" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="G67">
         <v>33.404994960000003</v>
@@ -4440,19 +4391,19 @@
         <v>23</v>
       </c>
       <c r="B68" t="s">
-        <v>69</v>
+        <v>51</v>
       </c>
       <c r="C68" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="D68" t="s">
-        <v>62</v>
+        <v>45</v>
       </c>
       <c r="E68" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="F68" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="G68">
         <v>34.344539640000001</v>
@@ -4496,19 +4447,19 @@
         <v>23</v>
       </c>
       <c r="B69" t="s">
-        <v>69</v>
+        <v>51</v>
       </c>
       <c r="C69" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="D69" t="s">
-        <v>62</v>
+        <v>45</v>
       </c>
       <c r="E69" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="F69" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="G69">
         <v>34.13310242</v>
@@ -4552,19 +4503,19 @@
         <v>23</v>
       </c>
       <c r="B70" t="s">
-        <v>69</v>
+        <v>51</v>
       </c>
       <c r="C70" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="D70" t="s">
-        <v>62</v>
+        <v>45</v>
       </c>
       <c r="E70" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="F70" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="G70">
         <v>35.663227079999999</v>
@@ -4608,19 +4559,19 @@
         <v>24</v>
       </c>
       <c r="B71" t="s">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="C71" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="D71" t="s">
-        <v>62</v>
+        <v>45</v>
       </c>
       <c r="E71" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="F71" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="G71">
         <v>33.390323639999998</v>
@@ -4664,19 +4615,19 @@
         <v>24</v>
       </c>
       <c r="B72" t="s">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="C72" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="D72" t="s">
-        <v>62</v>
+        <v>45</v>
       </c>
       <c r="E72" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="F72" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="G72">
         <v>35.087978360000001</v>
@@ -4720,19 +4671,19 @@
         <v>24</v>
       </c>
       <c r="B73" t="s">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="C73" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="D73" t="s">
-        <v>62</v>
+        <v>45</v>
       </c>
       <c r="E73" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="F73" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="G73">
         <v>35.302650450000002</v>
@@ -4776,19 +4727,19 @@
         <v>25</v>
       </c>
       <c r="B74" t="s">
-        <v>71</v>
+        <v>53</v>
       </c>
       <c r="C74" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="D74" t="s">
-        <v>62</v>
+        <v>45</v>
       </c>
       <c r="E74" t="s">
-        <v>63</v>
+        <v>27</v>
       </c>
       <c r="F74" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="G74">
         <v>-1</v>
@@ -4832,19 +4783,19 @@
         <v>25</v>
       </c>
       <c r="B75" t="s">
-        <v>71</v>
+        <v>53</v>
       </c>
       <c r="C75" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="D75" t="s">
-        <v>62</v>
+        <v>45</v>
       </c>
       <c r="E75" t="s">
-        <v>63</v>
+        <v>27</v>
       </c>
       <c r="F75" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="G75">
         <v>33.080989840000001</v>
@@ -4888,19 +4839,19 @@
         <v>25</v>
       </c>
       <c r="B76" t="s">
-        <v>71</v>
+        <v>53</v>
       </c>
       <c r="C76" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="D76" t="s">
-        <v>62</v>
+        <v>45</v>
       </c>
       <c r="E76" t="s">
-        <v>63</v>
+        <v>27</v>
       </c>
       <c r="F76" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="G76">
         <v>35.516067499999998</v>
@@ -4944,19 +4895,19 @@
         <v>26</v>
       </c>
       <c r="B77" t="s">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="C77" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="D77" t="s">
-        <v>62</v>
+        <v>45</v>
       </c>
       <c r="E77" t="s">
-        <v>63</v>
+        <v>27</v>
       </c>
       <c r="F77" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="G77">
         <v>33.543312069999999</v>
@@ -5000,19 +4951,19 @@
         <v>26</v>
       </c>
       <c r="B78" t="s">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="C78" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="D78" t="s">
-        <v>62</v>
+        <v>45</v>
       </c>
       <c r="E78" t="s">
-        <v>63</v>
+        <v>27</v>
       </c>
       <c r="F78" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="G78">
         <v>-1</v>
@@ -5056,19 +5007,19 @@
         <v>26</v>
       </c>
       <c r="B79" t="s">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="C79" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="D79" t="s">
-        <v>62</v>
+        <v>45</v>
       </c>
       <c r="E79" t="s">
-        <v>63</v>
+        <v>27</v>
       </c>
       <c r="F79" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="G79">
         <v>33.262214659999998</v>
@@ -5109,19 +5060,19 @@
         <v>27</v>
       </c>
       <c r="B80" t="s">
-        <v>73</v>
+        <v>55</v>
       </c>
       <c r="C80" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="D80" t="s">
-        <v>62</v>
+        <v>45</v>
       </c>
       <c r="E80" t="s">
-        <v>63</v>
+        <v>27</v>
       </c>
       <c r="F80" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="G80">
         <v>34.525871279999997</v>
@@ -5165,19 +5116,19 @@
         <v>27</v>
       </c>
       <c r="B81" t="s">
-        <v>73</v>
+        <v>55</v>
       </c>
       <c r="C81" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="D81" t="s">
-        <v>62</v>
+        <v>45</v>
       </c>
       <c r="E81" t="s">
-        <v>63</v>
+        <v>27</v>
       </c>
       <c r="F81" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="G81">
         <v>33.687469479999997</v>
@@ -5221,19 +5172,19 @@
         <v>27</v>
       </c>
       <c r="B82" t="s">
-        <v>73</v>
+        <v>55</v>
       </c>
       <c r="C82" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="D82" t="s">
-        <v>62</v>
+        <v>45</v>
       </c>
       <c r="E82" t="s">
-        <v>63</v>
+        <v>27</v>
       </c>
       <c r="F82" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="G82">
         <v>35.369834900000001</v>
@@ -5277,19 +5228,19 @@
         <v>28</v>
       </c>
       <c r="B83" t="s">
-        <v>74</v>
+        <v>56</v>
       </c>
       <c r="C83" t="s">
-        <v>68</v>
+        <v>50</v>
       </c>
       <c r="D83" t="s">
-        <v>62</v>
+        <v>45</v>
       </c>
       <c r="E83" t="s">
-        <v>63</v>
+        <v>27</v>
       </c>
       <c r="F83" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="G83">
         <v>35.672012330000001</v>
@@ -5333,19 +5284,19 @@
         <v>28</v>
       </c>
       <c r="B84" t="s">
-        <v>74</v>
+        <v>56</v>
       </c>
       <c r="C84" t="s">
-        <v>68</v>
+        <v>50</v>
       </c>
       <c r="D84" t="s">
-        <v>62</v>
+        <v>45</v>
       </c>
       <c r="E84" t="s">
-        <v>63</v>
+        <v>27</v>
       </c>
       <c r="F84" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="G84">
         <v>35.562946320000002</v>
@@ -5389,19 +5340,19 @@
         <v>28</v>
       </c>
       <c r="B85" t="s">
-        <v>74</v>
+        <v>56</v>
       </c>
       <c r="C85" t="s">
-        <v>68</v>
+        <v>50</v>
       </c>
       <c r="D85" t="s">
-        <v>62</v>
+        <v>45</v>
       </c>
       <c r="E85" t="s">
-        <v>63</v>
+        <v>27</v>
       </c>
       <c r="F85" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="G85">
         <v>33.23603439</v>
@@ -5445,19 +5396,19 @@
         <v>29</v>
       </c>
       <c r="B86" t="s">
-        <v>75</v>
+        <v>57</v>
       </c>
       <c r="C86" t="s">
-        <v>68</v>
+        <v>50</v>
       </c>
       <c r="D86" t="s">
-        <v>62</v>
+        <v>45</v>
       </c>
       <c r="E86" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="F86" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="G86">
         <v>34.462234500000001</v>
@@ -5501,19 +5452,19 @@
         <v>29</v>
       </c>
       <c r="B87" t="s">
-        <v>75</v>
+        <v>57</v>
       </c>
       <c r="C87" t="s">
-        <v>68</v>
+        <v>50</v>
       </c>
       <c r="D87" t="s">
-        <v>62</v>
+        <v>45</v>
       </c>
       <c r="E87" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="F87" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="G87">
         <v>33.819545750000003</v>
@@ -5557,19 +5508,19 @@
         <v>29</v>
       </c>
       <c r="B88" t="s">
-        <v>75</v>
+        <v>57</v>
       </c>
       <c r="C88" t="s">
-        <v>68</v>
+        <v>50</v>
       </c>
       <c r="D88" t="s">
-        <v>62</v>
+        <v>45</v>
       </c>
       <c r="E88" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="F88" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="G88">
         <v>33.688617710000003</v>
@@ -5613,19 +5564,19 @@
         <v>30</v>
       </c>
       <c r="B89" t="s">
-        <v>76</v>
+        <v>58</v>
       </c>
       <c r="C89" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="D89" t="s">
-        <v>62</v>
+        <v>45</v>
       </c>
       <c r="E89" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="F89" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="G89">
         <v>36.315086360000002</v>
@@ -5669,19 +5620,19 @@
         <v>30</v>
       </c>
       <c r="B90" t="s">
-        <v>76</v>
+        <v>58</v>
       </c>
       <c r="C90" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="D90" t="s">
-        <v>62</v>
+        <v>45</v>
       </c>
       <c r="E90" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="F90" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="G90">
         <v>35.579524990000003</v>
@@ -5725,19 +5676,19 @@
         <v>30</v>
       </c>
       <c r="B91" t="s">
-        <v>76</v>
+        <v>58</v>
       </c>
       <c r="C91" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="D91" t="s">
-        <v>62</v>
+        <v>45</v>
       </c>
       <c r="E91" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="F91" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="G91">
         <v>33.618278500000002</v>
@@ -5781,19 +5732,19 @@
         <v>31</v>
       </c>
       <c r="B92" t="s">
-        <v>77</v>
+        <v>59</v>
       </c>
       <c r="C92" t="s">
-        <v>68</v>
+        <v>50</v>
       </c>
       <c r="D92" t="s">
-        <v>62</v>
+        <v>45</v>
       </c>
       <c r="E92" t="s">
-        <v>63</v>
+        <v>27</v>
       </c>
       <c r="F92" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="G92">
         <v>30.43812943</v>
@@ -5837,19 +5788,19 @@
         <v>31</v>
       </c>
       <c r="B93" t="s">
-        <v>77</v>
+        <v>59</v>
       </c>
       <c r="C93" t="s">
-        <v>68</v>
+        <v>50</v>
       </c>
       <c r="D93" t="s">
-        <v>62</v>
+        <v>45</v>
       </c>
       <c r="E93" t="s">
-        <v>63</v>
+        <v>27</v>
       </c>
       <c r="F93" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="G93">
         <v>30.942375179999999</v>
@@ -5893,19 +5844,19 @@
         <v>31</v>
       </c>
       <c r="B94" t="s">
-        <v>77</v>
+        <v>59</v>
       </c>
       <c r="C94" t="s">
-        <v>68</v>
+        <v>50</v>
       </c>
       <c r="D94" t="s">
-        <v>62</v>
+        <v>45</v>
       </c>
       <c r="E94" t="s">
-        <v>63</v>
+        <v>27</v>
       </c>
       <c r="F94" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="G94">
         <v>30.446126939999999</v>
@@ -5949,19 +5900,19 @@
         <v>32</v>
       </c>
       <c r="B95" t="s">
-        <v>78</v>
+        <v>60</v>
       </c>
       <c r="C95" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="D95" t="s">
-        <v>62</v>
+        <v>45</v>
       </c>
       <c r="E95" t="s">
-        <v>63</v>
+        <v>27</v>
       </c>
       <c r="F95" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="G95">
         <v>31.438110349999999</v>
@@ -6005,19 +5956,19 @@
         <v>32</v>
       </c>
       <c r="B96" t="s">
-        <v>78</v>
+        <v>60</v>
       </c>
       <c r="C96" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="D96" t="s">
-        <v>62</v>
+        <v>45</v>
       </c>
       <c r="E96" t="s">
-        <v>63</v>
+        <v>27</v>
       </c>
       <c r="F96" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="G96">
         <v>31.262889860000001</v>
@@ -6061,19 +6012,19 @@
         <v>32</v>
       </c>
       <c r="B97" t="s">
-        <v>78</v>
+        <v>60</v>
       </c>
       <c r="C97" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="D97" t="s">
-        <v>62</v>
+        <v>45</v>
       </c>
       <c r="E97" t="s">
-        <v>63</v>
+        <v>27</v>
       </c>
       <c r="F97" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="G97">
         <v>30.854640960000001</v>
@@ -6117,19 +6068,19 @@
         <v>33</v>
       </c>
       <c r="B98" t="s">
-        <v>79</v>
+        <v>61</v>
       </c>
       <c r="C98" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="D98" t="s">
-        <v>62</v>
+        <v>45</v>
       </c>
       <c r="E98" t="s">
-        <v>63</v>
+        <v>27</v>
       </c>
       <c r="F98" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="G98">
         <v>36.944404599999999</v>
@@ -6173,19 +6124,19 @@
         <v>33</v>
       </c>
       <c r="B99" t="s">
-        <v>79</v>
+        <v>61</v>
       </c>
       <c r="C99" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="D99" t="s">
-        <v>62</v>
+        <v>45</v>
       </c>
       <c r="E99" t="s">
-        <v>63</v>
+        <v>27</v>
       </c>
       <c r="F99" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="G99">
         <v>33.740093229999999</v>
@@ -6229,19 +6180,19 @@
         <v>33</v>
       </c>
       <c r="B100" t="s">
-        <v>79</v>
+        <v>61</v>
       </c>
       <c r="C100" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="D100" t="s">
-        <v>62</v>
+        <v>45</v>
       </c>
       <c r="E100" t="s">
-        <v>63</v>
+        <v>27</v>
       </c>
       <c r="F100" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="G100">
         <v>36.291885379999997</v>
@@ -6285,19 +6236,19 @@
         <v>34</v>
       </c>
       <c r="B101" t="s">
-        <v>80</v>
+        <v>62</v>
       </c>
       <c r="C101" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="D101" t="s">
-        <v>62</v>
+        <v>45</v>
       </c>
       <c r="E101" t="s">
-        <v>63</v>
+        <v>27</v>
       </c>
       <c r="F101" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="G101">
         <v>34.46593094</v>
@@ -6341,19 +6292,19 @@
         <v>34</v>
       </c>
       <c r="B102" t="s">
-        <v>80</v>
+        <v>62</v>
       </c>
       <c r="C102" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="D102" t="s">
-        <v>62</v>
+        <v>45</v>
       </c>
       <c r="E102" t="s">
-        <v>63</v>
+        <v>27</v>
       </c>
       <c r="F102" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="G102">
         <v>34.676219940000003</v>
@@ -6397,19 +6348,19 @@
         <v>34</v>
       </c>
       <c r="B103" t="s">
-        <v>80</v>
+        <v>62</v>
       </c>
       <c r="C103" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="D103" t="s">
-        <v>62</v>
+        <v>45</v>
       </c>
       <c r="E103" t="s">
-        <v>63</v>
+        <v>27</v>
       </c>
       <c r="F103" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="G103">
         <v>34.712112429999998</v>
@@ -6453,19 +6404,19 @@
         <v>35</v>
       </c>
       <c r="B104" t="s">
-        <v>81</v>
+        <v>53</v>
       </c>
       <c r="C104" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="D104" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="E104" t="s">
-        <v>63</v>
+        <v>27</v>
       </c>
       <c r="F104" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="G104">
         <v>36.064704900000002</v>
@@ -6512,19 +6463,19 @@
         <v>35</v>
       </c>
       <c r="B105" t="s">
-        <v>81</v>
+        <v>53</v>
       </c>
       <c r="C105" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="D105" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="E105" t="s">
-        <v>63</v>
+        <v>27</v>
       </c>
       <c r="F105" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="G105">
         <v>35.283657069999997</v>
@@ -6571,19 +6522,19 @@
         <v>35</v>
       </c>
       <c r="B106" t="s">
-        <v>81</v>
+        <v>53</v>
       </c>
       <c r="C106" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="D106" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="E106" t="s">
-        <v>63</v>
+        <v>27</v>
       </c>
       <c r="F106" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="G106">
         <v>35.232368469999997</v>
@@ -6630,19 +6581,19 @@
         <v>36</v>
       </c>
       <c r="B107" t="s">
-        <v>82</v>
+        <v>60</v>
       </c>
       <c r="C107" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="D107" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="E107" t="s">
-        <v>63</v>
+        <v>27</v>
       </c>
       <c r="F107" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="G107">
         <v>34.131557460000003</v>
@@ -6689,19 +6640,19 @@
         <v>36</v>
       </c>
       <c r="B108" t="s">
-        <v>82</v>
+        <v>60</v>
       </c>
       <c r="C108" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="D108" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="E108" t="s">
-        <v>63</v>
+        <v>27</v>
       </c>
       <c r="F108" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="G108">
         <v>35.271141049999997</v>
@@ -6748,19 +6699,19 @@
         <v>36</v>
       </c>
       <c r="B109" t="s">
-        <v>82</v>
+        <v>60</v>
       </c>
       <c r="C109" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="D109" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="E109" t="s">
-        <v>63</v>
+        <v>27</v>
       </c>
       <c r="F109" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="G109">
         <v>34.448760989999997</v>
@@ -6807,19 +6758,19 @@
         <v>37</v>
       </c>
       <c r="B110" t="s">
-        <v>83</v>
+        <v>62</v>
       </c>
       <c r="C110" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="D110" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="E110" t="s">
-        <v>63</v>
+        <v>27</v>
       </c>
       <c r="F110" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="G110">
         <v>34.565933229999999</v>
@@ -6866,19 +6817,19 @@
         <v>37</v>
       </c>
       <c r="B111" t="s">
-        <v>83</v>
+        <v>62</v>
       </c>
       <c r="C111" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="D111" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="E111" t="s">
-        <v>63</v>
+        <v>27</v>
       </c>
       <c r="F111" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="G111">
         <v>34.895481109999999</v>
@@ -6925,19 +6876,19 @@
         <v>37</v>
       </c>
       <c r="B112" t="s">
-        <v>83</v>
+        <v>62</v>
       </c>
       <c r="C112" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="D112" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="E112" t="s">
-        <v>63</v>
+        <v>27</v>
       </c>
       <c r="F112" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="G112">
         <v>34.536075590000003</v>
@@ -6984,19 +6935,19 @@
         <v>38</v>
       </c>
       <c r="B113" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C113" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="D113" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="E113" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="F113" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="G113">
         <v>33.785598749999998</v>
@@ -7043,19 +6994,19 @@
         <v>38</v>
       </c>
       <c r="B114" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C114" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="D114" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="E114" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="F114" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="G114">
         <v>33.547737120000001</v>
@@ -7102,19 +7053,19 @@
         <v>38</v>
       </c>
       <c r="B115" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C115" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="D115" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="E115" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="F115" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="G115">
         <v>33.694496149999999</v>
@@ -7161,19 +7112,19 @@
         <v>39</v>
       </c>
       <c r="B116" t="s">
-        <v>85</v>
+        <v>49</v>
       </c>
       <c r="C116" t="s">
-        <v>68</v>
+        <v>50</v>
       </c>
       <c r="D116" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="E116" t="s">
-        <v>63</v>
+        <v>27</v>
       </c>
       <c r="F116" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="G116">
         <v>-1</v>
@@ -7220,19 +7171,19 @@
         <v>39</v>
       </c>
       <c r="B117" t="s">
-        <v>85</v>
+        <v>49</v>
       </c>
       <c r="C117" t="s">
-        <v>68</v>
+        <v>50</v>
       </c>
       <c r="D117" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="E117" t="s">
-        <v>63</v>
+        <v>27</v>
       </c>
       <c r="F117" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="G117">
         <v>-1</v>
@@ -7279,19 +7230,19 @@
         <v>39</v>
       </c>
       <c r="B118" t="s">
-        <v>85</v>
+        <v>49</v>
       </c>
       <c r="C118" t="s">
-        <v>68</v>
+        <v>50</v>
       </c>
       <c r="D118" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="E118" t="s">
-        <v>63</v>
+        <v>27</v>
       </c>
       <c r="F118" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="G118">
         <v>36.384605409999999</v>
@@ -7338,19 +7289,19 @@
         <v>40</v>
       </c>
       <c r="B119" t="s">
-        <v>86</v>
+        <v>54</v>
       </c>
       <c r="C119" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="D119" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="E119" t="s">
-        <v>63</v>
+        <v>27</v>
       </c>
       <c r="F119" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="G119">
         <v>36.569217680000001</v>
@@ -7397,19 +7348,19 @@
         <v>40</v>
       </c>
       <c r="B120" t="s">
-        <v>86</v>
+        <v>54</v>
       </c>
       <c r="C120" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="D120" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="E120" t="s">
-        <v>63</v>
+        <v>27</v>
       </c>
       <c r="F120" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="G120">
         <v>37.777812959999999</v>
@@ -7456,19 +7407,19 @@
         <v>40</v>
       </c>
       <c r="B121" t="s">
-        <v>86</v>
+        <v>54</v>
       </c>
       <c r="C121" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="D121" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="E121" t="s">
-        <v>63</v>
+        <v>27</v>
       </c>
       <c r="F121" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="G121">
         <v>35.847625729999997</v>
@@ -7515,19 +7466,19 @@
         <v>41</v>
       </c>
       <c r="B122" t="s">
-        <v>87</v>
+        <v>56</v>
       </c>
       <c r="C122" t="s">
-        <v>68</v>
+        <v>50</v>
       </c>
       <c r="D122" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="E122" t="s">
-        <v>63</v>
+        <v>27</v>
       </c>
       <c r="F122" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="G122">
         <v>35.09890747</v>
@@ -7574,19 +7525,19 @@
         <v>41</v>
       </c>
       <c r="B123" t="s">
-        <v>87</v>
+        <v>56</v>
       </c>
       <c r="C123" t="s">
-        <v>68</v>
+        <v>50</v>
       </c>
       <c r="D123" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="E123" t="s">
-        <v>63</v>
+        <v>27</v>
       </c>
       <c r="F123" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="G123">
         <v>35.752723690000003</v>
@@ -7633,19 +7584,19 @@
         <v>41</v>
       </c>
       <c r="B124" t="s">
-        <v>87</v>
+        <v>56</v>
       </c>
       <c r="C124" t="s">
-        <v>68</v>
+        <v>50</v>
       </c>
       <c r="D124" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="E124" t="s">
-        <v>63</v>
+        <v>27</v>
       </c>
       <c r="F124" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="G124">
         <v>34.624561309999997</v>
@@ -7692,19 +7643,19 @@
         <v>42</v>
       </c>
       <c r="B125" t="s">
-        <v>88</v>
+        <v>48</v>
       </c>
       <c r="C125" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="D125" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="E125" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="F125" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="G125">
         <v>36.276832579999997</v>
@@ -7751,19 +7702,19 @@
         <v>42</v>
       </c>
       <c r="B126" t="s">
-        <v>88</v>
+        <v>48</v>
       </c>
       <c r="C126" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="D126" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="E126" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="F126" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="G126">
         <v>37.974964139999997</v>
@@ -7810,19 +7761,19 @@
         <v>42</v>
       </c>
       <c r="B127" t="s">
-        <v>88</v>
+        <v>48</v>
       </c>
       <c r="C127" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="D127" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="E127" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="F127" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="G127">
         <v>38.066837309999997</v>
@@ -7869,19 +7820,19 @@
         <v>43</v>
       </c>
       <c r="B128" t="s">
-        <v>89</v>
+        <v>58</v>
       </c>
       <c r="C128" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="D128" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="E128" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="F128" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="G128">
         <v>35.838207240000003</v>
@@ -7928,19 +7879,19 @@
         <v>43</v>
       </c>
       <c r="B129" t="s">
-        <v>89</v>
+        <v>58</v>
       </c>
       <c r="C129" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="D129" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="E129" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="F129" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="G129">
         <v>37.968593599999998</v>
@@ -7987,19 +7938,19 @@
         <v>43</v>
       </c>
       <c r="B130" t="s">
-        <v>89</v>
+        <v>58</v>
       </c>
       <c r="C130" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="D130" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="E130" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="F130" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="G130">
         <v>35.548709870000003</v>
@@ -8046,19 +7997,19 @@
         <v>44</v>
       </c>
       <c r="B131" t="s">
-        <v>90</v>
+        <v>57</v>
       </c>
       <c r="C131" t="s">
-        <v>68</v>
+        <v>50</v>
       </c>
       <c r="D131" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="E131" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="F131" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="G131">
         <v>37.728595730000002</v>
@@ -8105,19 +8056,19 @@
         <v>44</v>
       </c>
       <c r="B132" t="s">
-        <v>90</v>
+        <v>57</v>
       </c>
       <c r="C132" t="s">
-        <v>68</v>
+        <v>50</v>
       </c>
       <c r="D132" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="E132" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="F132" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="G132">
         <v>-1</v>
@@ -8164,19 +8115,19 @@
         <v>44</v>
       </c>
       <c r="B133" t="s">
-        <v>90</v>
+        <v>57</v>
       </c>
       <c r="C133" t="s">
-        <v>68</v>
+        <v>50</v>
       </c>
       <c r="D133" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="E133" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="F133" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="G133">
         <v>36.212409970000003</v>
@@ -8223,19 +8174,19 @@
         <v>45</v>
       </c>
       <c r="B134" t="s">
-        <v>91</v>
+        <v>46</v>
       </c>
       <c r="C134" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="D134" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="E134" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="F134" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="G134" t="s">
         <v>18</v>
@@ -8282,19 +8233,19 @@
         <v>45</v>
       </c>
       <c r="B135" t="s">
-        <v>91</v>
+        <v>46</v>
       </c>
       <c r="C135" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="D135" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="E135" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="F135" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="G135" t="s">
         <v>18</v>
@@ -8341,19 +8292,19 @@
         <v>45</v>
       </c>
       <c r="B136" t="s">
-        <v>91</v>
+        <v>46</v>
       </c>
       <c r="C136" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="D136" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="E136" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="F136" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="G136" t="s">
         <v>18</v>
@@ -8400,19 +8351,19 @@
         <v>46</v>
       </c>
       <c r="B137" t="s">
-        <v>92</v>
+        <v>61</v>
       </c>
       <c r="C137" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="D137" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="E137" t="s">
-        <v>63</v>
+        <v>27</v>
       </c>
       <c r="F137" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="G137">
         <v>-1</v>
@@ -8459,19 +8410,19 @@
         <v>46</v>
       </c>
       <c r="B138" t="s">
-        <v>92</v>
+        <v>61</v>
       </c>
       <c r="C138" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="D138" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="E138" t="s">
-        <v>63</v>
+        <v>27</v>
       </c>
       <c r="F138" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="G138">
         <v>-1</v>
@@ -8518,19 +8469,19 @@
         <v>46</v>
       </c>
       <c r="B139" t="s">
-        <v>92</v>
+        <v>61</v>
       </c>
       <c r="C139" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="D139" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="E139" t="s">
-        <v>63</v>
+        <v>27</v>
       </c>
       <c r="F139" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="G139">
         <v>-1</v>
@@ -8577,19 +8528,19 @@
         <v>47</v>
       </c>
       <c r="B140" t="s">
-        <v>93</v>
+        <v>59</v>
       </c>
       <c r="C140" t="s">
-        <v>68</v>
+        <v>50</v>
       </c>
       <c r="D140" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="E140" t="s">
-        <v>63</v>
+        <v>27</v>
       </c>
       <c r="F140" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="G140">
         <v>33.007579800000002</v>
@@ -8636,19 +8587,19 @@
         <v>47</v>
       </c>
       <c r="B141" t="s">
-        <v>93</v>
+        <v>59</v>
       </c>
       <c r="C141" t="s">
-        <v>68</v>
+        <v>50</v>
       </c>
       <c r="D141" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="E141" t="s">
-        <v>63</v>
+        <v>27</v>
       </c>
       <c r="F141" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="G141">
         <v>33.062603000000003</v>
@@ -8695,19 +8646,19 @@
         <v>47</v>
       </c>
       <c r="B142" t="s">
-        <v>93</v>
+        <v>59</v>
       </c>
       <c r="C142" t="s">
-        <v>68</v>
+        <v>50</v>
       </c>
       <c r="D142" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="E142" t="s">
-        <v>63</v>
+        <v>27</v>
       </c>
       <c r="F142" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="G142">
         <v>32.870510099999997</v>
@@ -8754,19 +8705,19 @@
         <v>48</v>
       </c>
       <c r="B143" t="s">
-        <v>94</v>
+        <v>44</v>
       </c>
       <c r="C143" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="D143" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="E143" t="s">
-        <v>63</v>
+        <v>27</v>
       </c>
       <c r="F143" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="G143">
         <v>34.370452880000002</v>
@@ -8813,19 +8764,19 @@
         <v>48</v>
       </c>
       <c r="B144" t="s">
-        <v>94</v>
+        <v>44</v>
       </c>
       <c r="C144" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="D144" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="E144" t="s">
-        <v>63</v>
+        <v>27</v>
       </c>
       <c r="F144" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="G144">
         <v>34.684474950000002</v>
@@ -8872,19 +8823,19 @@
         <v>48</v>
       </c>
       <c r="B145" t="s">
-        <v>94</v>
+        <v>44</v>
       </c>
       <c r="C145" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="D145" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="E145" t="s">
-        <v>63</v>
+        <v>27</v>
       </c>
       <c r="F145" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="G145">
         <v>33.946640010000003</v>
@@ -8931,19 +8882,19 @@
         <v>49</v>
       </c>
       <c r="B146" t="s">
-        <v>95</v>
+        <v>55</v>
       </c>
       <c r="C146" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="D146" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="E146" t="s">
-        <v>63</v>
+        <v>27</v>
       </c>
       <c r="F146" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="G146">
         <v>36.669887539999998</v>
@@ -8990,19 +8941,19 @@
         <v>49</v>
       </c>
       <c r="B147" t="s">
-        <v>95</v>
+        <v>55</v>
       </c>
       <c r="C147" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="D147" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="E147" t="s">
-        <v>63</v>
+        <v>27</v>
       </c>
       <c r="F147" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="G147">
         <v>-1</v>
@@ -9049,19 +9000,19 @@
         <v>49</v>
       </c>
       <c r="B148" t="s">
-        <v>95</v>
+        <v>55</v>
       </c>
       <c r="C148" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="D148" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="E148" t="s">
-        <v>63</v>
+        <v>27</v>
       </c>
       <c r="F148" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="G148">
         <v>37.698776250000002</v>
@@ -9108,19 +9059,19 @@
         <v>50</v>
       </c>
       <c r="B149" t="s">
-        <v>96</v>
+        <v>52</v>
       </c>
       <c r="C149" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="D149" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="E149" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="F149" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="G149">
         <v>35.337036130000001</v>
@@ -9167,19 +9118,19 @@
         <v>50</v>
       </c>
       <c r="B150" t="s">
-        <v>96</v>
+        <v>52</v>
       </c>
       <c r="C150" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="D150" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="E150" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="F150" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="G150">
         <v>35.489845279999997</v>
@@ -9226,19 +9177,19 @@
         <v>50</v>
       </c>
       <c r="B151" t="s">
-        <v>96</v>
+        <v>52</v>
       </c>
       <c r="C151" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="D151" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="E151" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="F151" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="G151">
         <v>35.435722349999999</v>
@@ -9285,19 +9236,19 @@
         <v>51</v>
       </c>
       <c r="B152" t="s">
-        <v>97</v>
+        <v>47</v>
       </c>
       <c r="C152" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="D152" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="E152" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="F152" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="G152">
         <v>36.250896449999999</v>
@@ -9344,19 +9295,19 @@
         <v>51</v>
       </c>
       <c r="B153" t="s">
-        <v>97</v>
+        <v>47</v>
       </c>
       <c r="C153" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="D153" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="E153" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="F153" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="G153">
         <v>36.005947110000001</v>
@@ -9403,19 +9354,19 @@
         <v>51</v>
       </c>
       <c r="B154" t="s">
-        <v>97</v>
+        <v>47</v>
       </c>
       <c r="C154" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="D154" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="E154" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="F154" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="G154">
         <v>36.214893340000003</v>
@@ -9462,19 +9413,19 @@
         <v>52</v>
       </c>
       <c r="B155" t="s">
-        <v>98</v>
+        <v>81</v>
       </c>
       <c r="C155" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="D155" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="E155" t="s">
-        <v>63</v>
+        <v>27</v>
       </c>
       <c r="F155" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="G155">
         <v>33.002334589999997</v>
@@ -9521,19 +9472,19 @@
         <v>52</v>
       </c>
       <c r="B156" t="s">
-        <v>98</v>
+        <v>81</v>
       </c>
       <c r="C156" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="D156" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="E156" t="s">
-        <v>63</v>
+        <v>27</v>
       </c>
       <c r="F156" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="G156">
         <v>32.563365939999997</v>
@@ -9580,19 +9531,19 @@
         <v>52</v>
       </c>
       <c r="B157" t="s">
-        <v>98</v>
+        <v>81</v>
       </c>
       <c r="C157" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="D157" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="E157" t="s">
-        <v>63</v>
+        <v>27</v>
       </c>
       <c r="F157" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="G157">
         <v>33.310909270000003</v>
@@ -9639,19 +9590,19 @@
         <v>53</v>
       </c>
       <c r="B158" t="s">
-        <v>99</v>
+        <v>51</v>
       </c>
       <c r="C158" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="D158" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="E158" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="F158" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="G158">
         <v>34.691257479999997</v>
@@ -9698,19 +9649,19 @@
         <v>53</v>
       </c>
       <c r="B159" t="s">
-        <v>99</v>
+        <v>51</v>
       </c>
       <c r="C159" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="D159" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="E159" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="F159" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="G159">
         <v>37.303810120000001</v>
@@ -9757,19 +9708,19 @@
         <v>53</v>
       </c>
       <c r="B160" t="s">
-        <v>99</v>
+        <v>51</v>
       </c>
       <c r="C160" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="D160" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="E160" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="F160" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="G160">
         <v>35.630794530000003</v>
@@ -9808,2130 +9759,6 @@
         <v>18</v>
       </c>
       <c r="S160" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="161" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A161">
-        <v>54</v>
-      </c>
-      <c r="B161" t="s">
-        <v>23</v>
-      </c>
-      <c r="C161" t="s">
-        <v>46</v>
-      </c>
-      <c r="D161" t="s">
-        <v>47</v>
-      </c>
-      <c r="E161" t="s">
-        <v>41</v>
-      </c>
-      <c r="F161" t="s">
-        <v>34</v>
-      </c>
-      <c r="G161">
-        <v>35.600315090000002</v>
-      </c>
-      <c r="H161">
-        <v>35.055347439999998</v>
-      </c>
-      <c r="I161">
-        <v>26.187149049999999</v>
-      </c>
-      <c r="J161" t="s">
-        <v>18</v>
-      </c>
-      <c r="K161" t="s">
-        <v>18</v>
-      </c>
-      <c r="L161" t="s">
-        <v>18</v>
-      </c>
-      <c r="M161" t="s">
-        <v>18</v>
-      </c>
-      <c r="N161" t="s">
-        <v>18</v>
-      </c>
-      <c r="O161" t="s">
-        <v>18</v>
-      </c>
-      <c r="P161" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q161" t="s">
-        <v>18</v>
-      </c>
-      <c r="R161" t="s">
-        <v>18</v>
-      </c>
-      <c r="S161" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="162" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A162">
-        <v>54</v>
-      </c>
-      <c r="B162" t="s">
-        <v>23</v>
-      </c>
-      <c r="C162" t="s">
-        <v>46</v>
-      </c>
-      <c r="D162" t="s">
-        <v>47</v>
-      </c>
-      <c r="E162" t="s">
-        <v>41</v>
-      </c>
-      <c r="F162" t="s">
-        <v>34</v>
-      </c>
-      <c r="G162">
-        <v>36.072086329999998</v>
-      </c>
-      <c r="H162">
-        <v>34.988410950000002</v>
-      </c>
-      <c r="I162">
-        <v>26.233648299999999</v>
-      </c>
-      <c r="J162" t="s">
-        <v>18</v>
-      </c>
-      <c r="K162" t="s">
-        <v>18</v>
-      </c>
-      <c r="L162" t="s">
-        <v>18</v>
-      </c>
-      <c r="M162" t="s">
-        <v>18</v>
-      </c>
-      <c r="N162" t="s">
-        <v>18</v>
-      </c>
-      <c r="O162" t="s">
-        <v>18</v>
-      </c>
-      <c r="P162" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q162" t="s">
-        <v>18</v>
-      </c>
-      <c r="R162" t="s">
-        <v>18</v>
-      </c>
-      <c r="S162" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="163" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A163">
-        <v>54</v>
-      </c>
-      <c r="B163" t="s">
-        <v>23</v>
-      </c>
-      <c r="C163" t="s">
-        <v>46</v>
-      </c>
-      <c r="D163" t="s">
-        <v>47</v>
-      </c>
-      <c r="E163" t="s">
-        <v>41</v>
-      </c>
-      <c r="F163" t="s">
-        <v>34</v>
-      </c>
-      <c r="G163">
-        <v>36.794158940000003</v>
-      </c>
-      <c r="H163">
-        <v>34.699428560000001</v>
-      </c>
-      <c r="I163">
-        <v>26.255355829999999</v>
-      </c>
-      <c r="J163" t="s">
-        <v>18</v>
-      </c>
-      <c r="K163" t="s">
-        <v>18</v>
-      </c>
-      <c r="L163" t="s">
-        <v>18</v>
-      </c>
-      <c r="M163" t="s">
-        <v>18</v>
-      </c>
-      <c r="N163" t="s">
-        <v>18</v>
-      </c>
-      <c r="O163" t="s">
-        <v>18</v>
-      </c>
-      <c r="P163" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q163" t="s">
-        <v>18</v>
-      </c>
-      <c r="R163" t="s">
-        <v>18</v>
-      </c>
-      <c r="S163" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="164" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A164">
-        <v>55</v>
-      </c>
-      <c r="B164" t="s">
-        <v>29</v>
-      </c>
-      <c r="C164" t="s">
-        <v>46</v>
-      </c>
-      <c r="D164" t="s">
-        <v>47</v>
-      </c>
-      <c r="E164" t="s">
-        <v>41</v>
-      </c>
-      <c r="F164" t="s">
-        <v>12</v>
-      </c>
-      <c r="G164">
-        <v>34.393669129999999</v>
-      </c>
-      <c r="H164">
-        <v>34.915901179999999</v>
-      </c>
-      <c r="I164">
-        <v>25.28633499</v>
-      </c>
-      <c r="J164" t="s">
-        <v>18</v>
-      </c>
-      <c r="K164" t="s">
-        <v>18</v>
-      </c>
-      <c r="L164" t="s">
-        <v>18</v>
-      </c>
-      <c r="M164" t="s">
-        <v>18</v>
-      </c>
-      <c r="N164" t="s">
-        <v>18</v>
-      </c>
-      <c r="O164" t="s">
-        <v>18</v>
-      </c>
-      <c r="P164" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q164" t="s">
-        <v>18</v>
-      </c>
-      <c r="R164" t="s">
-        <v>18</v>
-      </c>
-      <c r="S164" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="165" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A165">
-        <v>55</v>
-      </c>
-      <c r="B165" t="s">
-        <v>29</v>
-      </c>
-      <c r="C165" t="s">
-        <v>46</v>
-      </c>
-      <c r="D165" t="s">
-        <v>47</v>
-      </c>
-      <c r="E165" t="s">
-        <v>41</v>
-      </c>
-      <c r="F165" t="s">
-        <v>12</v>
-      </c>
-      <c r="G165">
-        <v>35.516750340000002</v>
-      </c>
-      <c r="H165">
-        <v>35.005992890000002</v>
-      </c>
-      <c r="I165">
-        <v>25.3582325</v>
-      </c>
-      <c r="J165" t="s">
-        <v>18</v>
-      </c>
-      <c r="K165" t="s">
-        <v>18</v>
-      </c>
-      <c r="L165" t="s">
-        <v>18</v>
-      </c>
-      <c r="M165" t="s">
-        <v>18</v>
-      </c>
-      <c r="N165" t="s">
-        <v>18</v>
-      </c>
-      <c r="O165" t="s">
-        <v>18</v>
-      </c>
-      <c r="P165" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q165" t="s">
-        <v>18</v>
-      </c>
-      <c r="R165" t="s">
-        <v>18</v>
-      </c>
-      <c r="S165" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="166" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A166">
-        <v>55</v>
-      </c>
-      <c r="B166" t="s">
-        <v>29</v>
-      </c>
-      <c r="C166" t="s">
-        <v>46</v>
-      </c>
-      <c r="D166" t="s">
-        <v>47</v>
-      </c>
-      <c r="E166" t="s">
-        <v>41</v>
-      </c>
-      <c r="F166" t="s">
-        <v>12</v>
-      </c>
-      <c r="G166">
-        <v>34.768638609999996</v>
-      </c>
-      <c r="H166" t="s">
-        <v>18</v>
-      </c>
-      <c r="I166">
-        <v>25.372837069999999</v>
-      </c>
-      <c r="J166" t="s">
-        <v>18</v>
-      </c>
-      <c r="K166" t="s">
-        <v>18</v>
-      </c>
-      <c r="L166" t="s">
-        <v>18</v>
-      </c>
-      <c r="M166" t="s">
-        <v>18</v>
-      </c>
-      <c r="N166" t="s">
-        <v>18</v>
-      </c>
-      <c r="O166" t="s">
-        <v>18</v>
-      </c>
-      <c r="P166" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q166" t="s">
-        <v>18</v>
-      </c>
-      <c r="R166" t="s">
-        <v>18</v>
-      </c>
-      <c r="S166" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="167" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A167">
-        <v>56</v>
-      </c>
-      <c r="B167" t="s">
-        <v>31</v>
-      </c>
-      <c r="C167" t="s">
-        <v>46</v>
-      </c>
-      <c r="D167" t="s">
-        <v>47</v>
-      </c>
-      <c r="E167" t="s">
-        <v>41</v>
-      </c>
-      <c r="F167" t="s">
-        <v>12</v>
-      </c>
-      <c r="G167">
-        <v>34.166278839999997</v>
-      </c>
-      <c r="H167">
-        <v>34.298744200000002</v>
-      </c>
-      <c r="I167">
-        <v>23.745044709999998</v>
-      </c>
-      <c r="J167" t="s">
-        <v>18</v>
-      </c>
-      <c r="K167" t="s">
-        <v>18</v>
-      </c>
-      <c r="L167" t="s">
-        <v>18</v>
-      </c>
-      <c r="M167" t="s">
-        <v>18</v>
-      </c>
-      <c r="N167" t="s">
-        <v>18</v>
-      </c>
-      <c r="O167" t="s">
-        <v>18</v>
-      </c>
-      <c r="P167" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q167" t="s">
-        <v>18</v>
-      </c>
-      <c r="R167" t="s">
-        <v>18</v>
-      </c>
-      <c r="S167" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="168" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A168">
-        <v>56</v>
-      </c>
-      <c r="B168" t="s">
-        <v>31</v>
-      </c>
-      <c r="C168" t="s">
-        <v>46</v>
-      </c>
-      <c r="D168" t="s">
-        <v>47</v>
-      </c>
-      <c r="E168" t="s">
-        <v>41</v>
-      </c>
-      <c r="F168" t="s">
-        <v>12</v>
-      </c>
-      <c r="G168">
-        <v>33.725032810000002</v>
-      </c>
-      <c r="H168">
-        <v>33.732204439999997</v>
-      </c>
-      <c r="I168">
-        <v>23.82416344</v>
-      </c>
-      <c r="J168" t="s">
-        <v>18</v>
-      </c>
-      <c r="K168" t="s">
-        <v>18</v>
-      </c>
-      <c r="L168" t="s">
-        <v>18</v>
-      </c>
-      <c r="M168" t="s">
-        <v>18</v>
-      </c>
-      <c r="N168" t="s">
-        <v>18</v>
-      </c>
-      <c r="O168" t="s">
-        <v>18</v>
-      </c>
-      <c r="P168" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q168" t="s">
-        <v>18</v>
-      </c>
-      <c r="R168" t="s">
-        <v>18</v>
-      </c>
-      <c r="S168" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="169" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A169">
-        <v>56</v>
-      </c>
-      <c r="B169" t="s">
-        <v>31</v>
-      </c>
-      <c r="C169" t="s">
-        <v>46</v>
-      </c>
-      <c r="D169" t="s">
-        <v>47</v>
-      </c>
-      <c r="E169" t="s">
-        <v>41</v>
-      </c>
-      <c r="F169" t="s">
-        <v>12</v>
-      </c>
-      <c r="G169">
-        <v>32.922924039999998</v>
-      </c>
-      <c r="H169">
-        <v>34.271366120000003</v>
-      </c>
-      <c r="I169">
-        <v>23.827846529999999</v>
-      </c>
-      <c r="J169" t="s">
-        <v>18</v>
-      </c>
-      <c r="K169" t="s">
-        <v>18</v>
-      </c>
-      <c r="L169" t="s">
-        <v>18</v>
-      </c>
-      <c r="M169" t="s">
-        <v>18</v>
-      </c>
-      <c r="N169" t="s">
-        <v>18</v>
-      </c>
-      <c r="O169" t="s">
-        <v>18</v>
-      </c>
-      <c r="P169" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q169" t="s">
-        <v>18</v>
-      </c>
-      <c r="R169" t="s">
-        <v>18</v>
-      </c>
-      <c r="S169" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="170" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A170">
-        <v>57</v>
-      </c>
-      <c r="B170" t="s">
-        <v>25</v>
-      </c>
-      <c r="C170" t="s">
-        <v>46</v>
-      </c>
-      <c r="D170" t="s">
-        <v>47</v>
-      </c>
-      <c r="E170" t="s">
-        <v>41</v>
-      </c>
-      <c r="F170" t="s">
-        <v>12</v>
-      </c>
-      <c r="G170">
-        <v>-1</v>
-      </c>
-      <c r="H170">
-        <v>-1</v>
-      </c>
-      <c r="I170">
-        <v>29.025062559999999</v>
-      </c>
-      <c r="J170" t="s">
-        <v>18</v>
-      </c>
-      <c r="K170" t="s">
-        <v>18</v>
-      </c>
-      <c r="L170" t="s">
-        <v>18</v>
-      </c>
-      <c r="M170" t="s">
-        <v>18</v>
-      </c>
-      <c r="N170" t="s">
-        <v>18</v>
-      </c>
-      <c r="O170" t="s">
-        <v>18</v>
-      </c>
-      <c r="P170" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q170" t="s">
-        <v>18</v>
-      </c>
-      <c r="R170" t="s">
-        <v>18</v>
-      </c>
-      <c r="S170" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="171" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A171">
-        <v>57</v>
-      </c>
-      <c r="B171" t="s">
-        <v>25</v>
-      </c>
-      <c r="C171" t="s">
-        <v>46</v>
-      </c>
-      <c r="D171" t="s">
-        <v>47</v>
-      </c>
-      <c r="E171" t="s">
-        <v>41</v>
-      </c>
-      <c r="F171" t="s">
-        <v>12</v>
-      </c>
-      <c r="G171">
-        <v>-1</v>
-      </c>
-      <c r="H171">
-        <v>-1</v>
-      </c>
-      <c r="I171">
-        <v>29.040426249999999</v>
-      </c>
-      <c r="J171" t="s">
-        <v>18</v>
-      </c>
-      <c r="K171" t="s">
-        <v>18</v>
-      </c>
-      <c r="L171" t="s">
-        <v>18</v>
-      </c>
-      <c r="M171" t="s">
-        <v>18</v>
-      </c>
-      <c r="N171" t="s">
-        <v>18</v>
-      </c>
-      <c r="O171" t="s">
-        <v>18</v>
-      </c>
-      <c r="P171" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q171" t="s">
-        <v>18</v>
-      </c>
-      <c r="R171" t="s">
-        <v>18</v>
-      </c>
-      <c r="S171" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="172" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A172">
-        <v>57</v>
-      </c>
-      <c r="B172" t="s">
-        <v>25</v>
-      </c>
-      <c r="C172" t="s">
-        <v>46</v>
-      </c>
-      <c r="D172" t="s">
-        <v>47</v>
-      </c>
-      <c r="E172" t="s">
-        <v>41</v>
-      </c>
-      <c r="F172" t="s">
-        <v>12</v>
-      </c>
-      <c r="G172">
-        <v>-1</v>
-      </c>
-      <c r="H172" t="s">
-        <v>18</v>
-      </c>
-      <c r="I172">
-        <v>29.20014763</v>
-      </c>
-      <c r="J172" t="s">
-        <v>18</v>
-      </c>
-      <c r="K172" t="s">
-        <v>18</v>
-      </c>
-      <c r="L172" t="s">
-        <v>18</v>
-      </c>
-      <c r="M172" t="s">
-        <v>18</v>
-      </c>
-      <c r="N172" t="s">
-        <v>18</v>
-      </c>
-      <c r="O172" t="s">
-        <v>18</v>
-      </c>
-      <c r="P172" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q172" t="s">
-        <v>18</v>
-      </c>
-      <c r="R172" t="s">
-        <v>18</v>
-      </c>
-      <c r="S172" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="173" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A173">
-        <v>58</v>
-      </c>
-      <c r="B173" t="s">
-        <v>28</v>
-      </c>
-      <c r="C173" t="s">
-        <v>46</v>
-      </c>
-      <c r="D173" t="s">
-        <v>47</v>
-      </c>
-      <c r="E173" t="s">
-        <v>41</v>
-      </c>
-      <c r="F173" t="s">
-        <v>12</v>
-      </c>
-      <c r="G173">
-        <v>33.406707760000003</v>
-      </c>
-      <c r="H173">
-        <v>34.426273350000002</v>
-      </c>
-      <c r="I173">
-        <v>25.356987</v>
-      </c>
-      <c r="J173" t="s">
-        <v>18</v>
-      </c>
-      <c r="K173" t="s">
-        <v>18</v>
-      </c>
-      <c r="L173" t="s">
-        <v>18</v>
-      </c>
-      <c r="M173" t="s">
-        <v>18</v>
-      </c>
-      <c r="N173" t="s">
-        <v>18</v>
-      </c>
-      <c r="O173" t="s">
-        <v>18</v>
-      </c>
-      <c r="P173" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q173" t="s">
-        <v>18</v>
-      </c>
-      <c r="R173" t="s">
-        <v>18</v>
-      </c>
-      <c r="S173" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="174" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A174">
-        <v>58</v>
-      </c>
-      <c r="B174" t="s">
-        <v>28</v>
-      </c>
-      <c r="C174" t="s">
-        <v>46</v>
-      </c>
-      <c r="D174" t="s">
-        <v>47</v>
-      </c>
-      <c r="E174" t="s">
-        <v>41</v>
-      </c>
-      <c r="F174" t="s">
-        <v>12</v>
-      </c>
-      <c r="G174">
-        <v>33.516143800000002</v>
-      </c>
-      <c r="H174">
-        <v>33.578121189999997</v>
-      </c>
-      <c r="I174">
-        <v>25.391262050000002</v>
-      </c>
-      <c r="J174" t="s">
-        <v>18</v>
-      </c>
-      <c r="K174" t="s">
-        <v>18</v>
-      </c>
-      <c r="L174" t="s">
-        <v>18</v>
-      </c>
-      <c r="M174" t="s">
-        <v>18</v>
-      </c>
-      <c r="N174" t="s">
-        <v>18</v>
-      </c>
-      <c r="O174" t="s">
-        <v>18</v>
-      </c>
-      <c r="P174" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q174" t="s">
-        <v>18</v>
-      </c>
-      <c r="R174" t="s">
-        <v>18</v>
-      </c>
-      <c r="S174" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="175" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A175">
-        <v>58</v>
-      </c>
-      <c r="B175" t="s">
-        <v>28</v>
-      </c>
-      <c r="C175" t="s">
-        <v>46</v>
-      </c>
-      <c r="D175" t="s">
-        <v>47</v>
-      </c>
-      <c r="E175" t="s">
-        <v>41</v>
-      </c>
-      <c r="F175" t="s">
-        <v>12</v>
-      </c>
-      <c r="G175">
-        <v>33.126483919999998</v>
-      </c>
-      <c r="H175">
-        <v>34.672397609999997</v>
-      </c>
-      <c r="I175">
-        <v>25.428256990000001</v>
-      </c>
-      <c r="J175" t="s">
-        <v>18</v>
-      </c>
-      <c r="K175" t="s">
-        <v>18</v>
-      </c>
-      <c r="L175" t="s">
-        <v>18</v>
-      </c>
-      <c r="M175" t="s">
-        <v>18</v>
-      </c>
-      <c r="N175" t="s">
-        <v>18</v>
-      </c>
-      <c r="O175" t="s">
-        <v>18</v>
-      </c>
-      <c r="P175" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q175" t="s">
-        <v>18</v>
-      </c>
-      <c r="R175" t="s">
-        <v>18</v>
-      </c>
-      <c r="S175" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="176" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A176">
-        <v>59</v>
-      </c>
-      <c r="B176" t="s">
-        <v>26</v>
-      </c>
-      <c r="C176" t="s">
-        <v>46</v>
-      </c>
-      <c r="D176" t="s">
-        <v>47</v>
-      </c>
-      <c r="E176" t="s">
-        <v>41</v>
-      </c>
-      <c r="F176" t="s">
-        <v>12</v>
-      </c>
-      <c r="G176" t="s">
-        <v>18</v>
-      </c>
-      <c r="H176">
-        <v>35.216152190000003</v>
-      </c>
-      <c r="I176">
-        <v>24.717002870000002</v>
-      </c>
-      <c r="J176" t="s">
-        <v>18</v>
-      </c>
-      <c r="K176" t="s">
-        <v>18</v>
-      </c>
-      <c r="L176" t="s">
-        <v>18</v>
-      </c>
-      <c r="M176" t="s">
-        <v>18</v>
-      </c>
-      <c r="N176" t="s">
-        <v>18</v>
-      </c>
-      <c r="O176" t="s">
-        <v>18</v>
-      </c>
-      <c r="P176" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q176" t="s">
-        <v>18</v>
-      </c>
-      <c r="R176" t="s">
-        <v>18</v>
-      </c>
-      <c r="S176" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="177" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A177">
-        <v>59</v>
-      </c>
-      <c r="B177" t="s">
-        <v>26</v>
-      </c>
-      <c r="C177" t="s">
-        <v>46</v>
-      </c>
-      <c r="D177" t="s">
-        <v>47</v>
-      </c>
-      <c r="E177" t="s">
-        <v>41</v>
-      </c>
-      <c r="F177" t="s">
-        <v>12</v>
-      </c>
-      <c r="G177">
-        <v>34.08581161</v>
-      </c>
-      <c r="H177">
-        <v>33.665611269999999</v>
-      </c>
-      <c r="I177">
-        <v>24.717052460000001</v>
-      </c>
-      <c r="J177" t="s">
-        <v>18</v>
-      </c>
-      <c r="K177" t="s">
-        <v>18</v>
-      </c>
-      <c r="L177" t="s">
-        <v>18</v>
-      </c>
-      <c r="M177" t="s">
-        <v>18</v>
-      </c>
-      <c r="N177" t="s">
-        <v>18</v>
-      </c>
-      <c r="O177" t="s">
-        <v>18</v>
-      </c>
-      <c r="P177" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q177" t="s">
-        <v>18</v>
-      </c>
-      <c r="R177" t="s">
-        <v>18</v>
-      </c>
-      <c r="S177" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="178" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A178">
-        <v>59</v>
-      </c>
-      <c r="B178" t="s">
-        <v>26</v>
-      </c>
-      <c r="C178" t="s">
-        <v>46</v>
-      </c>
-      <c r="D178" t="s">
-        <v>47</v>
-      </c>
-      <c r="E178" t="s">
-        <v>41</v>
-      </c>
-      <c r="F178" t="s">
-        <v>12</v>
-      </c>
-      <c r="G178">
-        <v>34.088584900000001</v>
-      </c>
-      <c r="H178">
-        <v>34.340980530000003</v>
-      </c>
-      <c r="I178">
-        <v>24.901109699999999</v>
-      </c>
-      <c r="J178" t="s">
-        <v>18</v>
-      </c>
-      <c r="K178" t="s">
-        <v>18</v>
-      </c>
-      <c r="L178" t="s">
-        <v>18</v>
-      </c>
-      <c r="M178" t="s">
-        <v>18</v>
-      </c>
-      <c r="N178" t="s">
-        <v>18</v>
-      </c>
-      <c r="O178" t="s">
-        <v>18</v>
-      </c>
-      <c r="P178" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q178" t="s">
-        <v>18</v>
-      </c>
-      <c r="R178" t="s">
-        <v>18</v>
-      </c>
-      <c r="S178" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="179" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A179">
-        <v>60</v>
-      </c>
-      <c r="B179" t="s">
-        <v>43</v>
-      </c>
-      <c r="C179" t="s">
-        <v>46</v>
-      </c>
-      <c r="D179" t="s">
-        <v>47</v>
-      </c>
-      <c r="E179" t="s">
-        <v>63</v>
-      </c>
-      <c r="F179" t="s">
-        <v>34</v>
-      </c>
-      <c r="G179">
-        <v>35.108734130000002</v>
-      </c>
-      <c r="H179">
-        <v>35.144615170000002</v>
-      </c>
-      <c r="I179">
-        <v>26.096811290000002</v>
-      </c>
-      <c r="J179" t="s">
-        <v>18</v>
-      </c>
-      <c r="K179" t="s">
-        <v>18</v>
-      </c>
-      <c r="L179" t="s">
-        <v>18</v>
-      </c>
-      <c r="M179" t="s">
-        <v>18</v>
-      </c>
-      <c r="N179" t="s">
-        <v>18</v>
-      </c>
-      <c r="O179" t="s">
-        <v>18</v>
-      </c>
-      <c r="P179" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q179" t="s">
-        <v>18</v>
-      </c>
-      <c r="R179" t="s">
-        <v>18</v>
-      </c>
-      <c r="S179" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="180" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A180">
-        <v>60</v>
-      </c>
-      <c r="B180" t="s">
-        <v>43</v>
-      </c>
-      <c r="C180" t="s">
-        <v>46</v>
-      </c>
-      <c r="D180" t="s">
-        <v>47</v>
-      </c>
-      <c r="E180" t="s">
-        <v>63</v>
-      </c>
-      <c r="F180" t="s">
-        <v>34</v>
-      </c>
-      <c r="G180">
-        <v>35.328639979999998</v>
-      </c>
-      <c r="H180">
-        <v>33.780467989999998</v>
-      </c>
-      <c r="I180">
-        <v>26.11940002</v>
-      </c>
-      <c r="J180" t="s">
-        <v>18</v>
-      </c>
-      <c r="K180" t="s">
-        <v>18</v>
-      </c>
-      <c r="L180" t="s">
-        <v>18</v>
-      </c>
-      <c r="M180" t="s">
-        <v>18</v>
-      </c>
-      <c r="N180" t="s">
-        <v>18</v>
-      </c>
-      <c r="O180" t="s">
-        <v>18</v>
-      </c>
-      <c r="P180" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q180" t="s">
-        <v>18</v>
-      </c>
-      <c r="R180" t="s">
-        <v>18</v>
-      </c>
-      <c r="S180" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="181" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A181">
-        <v>60</v>
-      </c>
-      <c r="B181" t="s">
-        <v>43</v>
-      </c>
-      <c r="C181" t="s">
-        <v>46</v>
-      </c>
-      <c r="D181" t="s">
-        <v>47</v>
-      </c>
-      <c r="E181" t="s">
-        <v>63</v>
-      </c>
-      <c r="F181" t="s">
-        <v>34</v>
-      </c>
-      <c r="G181">
-        <v>35.020774840000001</v>
-      </c>
-      <c r="H181">
-        <v>33.916156770000001</v>
-      </c>
-      <c r="I181">
-        <v>26.186506269999999</v>
-      </c>
-      <c r="J181" t="s">
-        <v>18</v>
-      </c>
-      <c r="K181" t="s">
-        <v>18</v>
-      </c>
-      <c r="L181" t="s">
-        <v>18</v>
-      </c>
-      <c r="M181" t="s">
-        <v>18</v>
-      </c>
-      <c r="N181" t="s">
-        <v>18</v>
-      </c>
-      <c r="O181" t="s">
-        <v>18</v>
-      </c>
-      <c r="P181" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q181" t="s">
-        <v>18</v>
-      </c>
-      <c r="R181" t="s">
-        <v>18</v>
-      </c>
-      <c r="S181" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="182" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A182">
-        <v>61</v>
-      </c>
-      <c r="B182" t="s">
-        <v>42</v>
-      </c>
-      <c r="C182" t="s">
-        <v>46</v>
-      </c>
-      <c r="D182" t="s">
-        <v>47</v>
-      </c>
-      <c r="E182" t="s">
-        <v>63</v>
-      </c>
-      <c r="F182" t="s">
-        <v>12</v>
-      </c>
-      <c r="G182">
-        <v>35.192996979999997</v>
-      </c>
-      <c r="H182">
-        <v>33.267040250000001</v>
-      </c>
-      <c r="I182">
-        <v>25.679103850000001</v>
-      </c>
-      <c r="J182" t="s">
-        <v>18</v>
-      </c>
-      <c r="K182" t="s">
-        <v>18</v>
-      </c>
-      <c r="L182" t="s">
-        <v>18</v>
-      </c>
-      <c r="M182" t="s">
-        <v>18</v>
-      </c>
-      <c r="N182" t="s">
-        <v>18</v>
-      </c>
-      <c r="O182" t="s">
-        <v>18</v>
-      </c>
-      <c r="P182" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q182" t="s">
-        <v>18</v>
-      </c>
-      <c r="R182" t="s">
-        <v>18</v>
-      </c>
-      <c r="S182" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="183" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A183">
-        <v>61</v>
-      </c>
-      <c r="B183" t="s">
-        <v>42</v>
-      </c>
-      <c r="C183" t="s">
-        <v>46</v>
-      </c>
-      <c r="D183" t="s">
-        <v>47</v>
-      </c>
-      <c r="E183" t="s">
-        <v>63</v>
-      </c>
-      <c r="F183" t="s">
-        <v>12</v>
-      </c>
-      <c r="G183">
-        <v>34.458015439999997</v>
-      </c>
-      <c r="H183">
-        <v>32.939929960000001</v>
-      </c>
-      <c r="I183">
-        <v>25.75613594</v>
-      </c>
-      <c r="J183" t="s">
-        <v>18</v>
-      </c>
-      <c r="K183" t="s">
-        <v>18</v>
-      </c>
-      <c r="L183" t="s">
-        <v>18</v>
-      </c>
-      <c r="M183" t="s">
-        <v>18</v>
-      </c>
-      <c r="N183" t="s">
-        <v>18</v>
-      </c>
-      <c r="O183" t="s">
-        <v>18</v>
-      </c>
-      <c r="P183" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q183" t="s">
-        <v>18</v>
-      </c>
-      <c r="R183" t="s">
-        <v>18</v>
-      </c>
-      <c r="S183" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="184" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A184">
-        <v>61</v>
-      </c>
-      <c r="B184" t="s">
-        <v>42</v>
-      </c>
-      <c r="C184" t="s">
-        <v>46</v>
-      </c>
-      <c r="D184" t="s">
-        <v>47</v>
-      </c>
-      <c r="E184" t="s">
-        <v>63</v>
-      </c>
-      <c r="F184" t="s">
-        <v>12</v>
-      </c>
-      <c r="G184">
-        <v>36.871753689999998</v>
-      </c>
-      <c r="H184">
-        <v>33.571357730000003</v>
-      </c>
-      <c r="I184">
-        <v>25.917114260000002</v>
-      </c>
-      <c r="J184" t="s">
-        <v>18</v>
-      </c>
-      <c r="K184" t="s">
-        <v>18</v>
-      </c>
-      <c r="L184" t="s">
-        <v>18</v>
-      </c>
-      <c r="M184" t="s">
-        <v>18</v>
-      </c>
-      <c r="N184" t="s">
-        <v>18</v>
-      </c>
-      <c r="O184" t="s">
-        <v>18</v>
-      </c>
-      <c r="P184" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q184" t="s">
-        <v>18</v>
-      </c>
-      <c r="R184" t="s">
-        <v>18</v>
-      </c>
-      <c r="S184" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="185" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A185">
-        <v>62</v>
-      </c>
-      <c r="B185" t="s">
-        <v>20</v>
-      </c>
-      <c r="C185" t="s">
-        <v>46</v>
-      </c>
-      <c r="D185" t="s">
-        <v>47</v>
-      </c>
-      <c r="E185" t="s">
-        <v>63</v>
-      </c>
-      <c r="F185" t="s">
-        <v>12</v>
-      </c>
-      <c r="G185">
-        <v>31.925254819999999</v>
-      </c>
-      <c r="H185">
-        <v>32.373104099999999</v>
-      </c>
-      <c r="I185">
-        <v>21.678226469999998</v>
-      </c>
-      <c r="J185" t="s">
-        <v>18</v>
-      </c>
-      <c r="K185" t="s">
-        <v>18</v>
-      </c>
-      <c r="L185" t="s">
-        <v>18</v>
-      </c>
-      <c r="M185" t="s">
-        <v>18</v>
-      </c>
-      <c r="N185" t="s">
-        <v>18</v>
-      </c>
-      <c r="O185" t="s">
-        <v>18</v>
-      </c>
-      <c r="P185" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q185" t="s">
-        <v>18</v>
-      </c>
-      <c r="R185" t="s">
-        <v>18</v>
-      </c>
-      <c r="S185" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="186" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A186">
-        <v>62</v>
-      </c>
-      <c r="B186" t="s">
-        <v>20</v>
-      </c>
-      <c r="C186" t="s">
-        <v>46</v>
-      </c>
-      <c r="D186" t="s">
-        <v>47</v>
-      </c>
-      <c r="E186" t="s">
-        <v>63</v>
-      </c>
-      <c r="F186" t="s">
-        <v>12</v>
-      </c>
-      <c r="G186">
-        <v>31.98428345</v>
-      </c>
-      <c r="H186">
-        <v>32.1714859</v>
-      </c>
-      <c r="I186">
-        <v>21.848215100000001</v>
-      </c>
-      <c r="J186" t="s">
-        <v>18</v>
-      </c>
-      <c r="K186" t="s">
-        <v>18</v>
-      </c>
-      <c r="L186" t="s">
-        <v>18</v>
-      </c>
-      <c r="M186" t="s">
-        <v>18</v>
-      </c>
-      <c r="N186" t="s">
-        <v>18</v>
-      </c>
-      <c r="O186" t="s">
-        <v>18</v>
-      </c>
-      <c r="P186" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q186" t="s">
-        <v>18</v>
-      </c>
-      <c r="R186" t="s">
-        <v>18</v>
-      </c>
-      <c r="S186" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="187" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A187">
-        <v>62</v>
-      </c>
-      <c r="B187" t="s">
-        <v>20</v>
-      </c>
-      <c r="C187" t="s">
-        <v>46</v>
-      </c>
-      <c r="D187" t="s">
-        <v>47</v>
-      </c>
-      <c r="E187" t="s">
-        <v>63</v>
-      </c>
-      <c r="F187" t="s">
-        <v>12</v>
-      </c>
-      <c r="G187">
-        <v>32.05524063</v>
-      </c>
-      <c r="H187">
-        <v>32.259845730000002</v>
-      </c>
-      <c r="I187" t="s">
-        <v>18</v>
-      </c>
-      <c r="J187" t="s">
-        <v>18</v>
-      </c>
-      <c r="K187" t="s">
-        <v>18</v>
-      </c>
-      <c r="L187" t="s">
-        <v>18</v>
-      </c>
-      <c r="M187" t="s">
-        <v>18</v>
-      </c>
-      <c r="N187" t="s">
-        <v>18</v>
-      </c>
-      <c r="O187" t="s">
-        <v>18</v>
-      </c>
-      <c r="P187" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q187" t="s">
-        <v>18</v>
-      </c>
-      <c r="R187" t="s">
-        <v>18</v>
-      </c>
-      <c r="S187" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="188" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A188">
-        <v>63</v>
-      </c>
-      <c r="B188" t="s">
-        <v>22</v>
-      </c>
-      <c r="C188" t="s">
-        <v>46</v>
-      </c>
-      <c r="D188" t="s">
-        <v>47</v>
-      </c>
-      <c r="E188" t="s">
-        <v>63</v>
-      </c>
-      <c r="F188" t="s">
-        <v>12</v>
-      </c>
-      <c r="G188">
-        <v>33.996658330000002</v>
-      </c>
-      <c r="H188">
-        <v>34.807430269999998</v>
-      </c>
-      <c r="I188">
-        <v>26.92713547</v>
-      </c>
-      <c r="J188" t="s">
-        <v>18</v>
-      </c>
-      <c r="K188" t="s">
-        <v>18</v>
-      </c>
-      <c r="L188" t="s">
-        <v>18</v>
-      </c>
-      <c r="M188" t="s">
-        <v>18</v>
-      </c>
-      <c r="N188" t="s">
-        <v>18</v>
-      </c>
-      <c r="O188" t="s">
-        <v>18</v>
-      </c>
-      <c r="P188" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q188" t="s">
-        <v>18</v>
-      </c>
-      <c r="R188" t="s">
-        <v>18</v>
-      </c>
-      <c r="S188" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="189" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A189">
-        <v>63</v>
-      </c>
-      <c r="B189" t="s">
-        <v>22</v>
-      </c>
-      <c r="C189" t="s">
-        <v>46</v>
-      </c>
-      <c r="D189" t="s">
-        <v>47</v>
-      </c>
-      <c r="E189" t="s">
-        <v>63</v>
-      </c>
-      <c r="F189" t="s">
-        <v>12</v>
-      </c>
-      <c r="G189">
-        <v>34.52233124</v>
-      </c>
-      <c r="H189">
-        <v>34.321918490000002</v>
-      </c>
-      <c r="I189">
-        <v>26.965721129999999</v>
-      </c>
-      <c r="J189" t="s">
-        <v>18</v>
-      </c>
-      <c r="K189" t="s">
-        <v>18</v>
-      </c>
-      <c r="L189" t="s">
-        <v>18</v>
-      </c>
-      <c r="M189" t="s">
-        <v>18</v>
-      </c>
-      <c r="N189" t="s">
-        <v>18</v>
-      </c>
-      <c r="O189" t="s">
-        <v>18</v>
-      </c>
-      <c r="P189" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q189" t="s">
-        <v>18</v>
-      </c>
-      <c r="R189" t="s">
-        <v>18</v>
-      </c>
-      <c r="S189" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="190" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A190">
-        <v>63</v>
-      </c>
-      <c r="B190" t="s">
-        <v>22</v>
-      </c>
-      <c r="C190" t="s">
-        <v>46</v>
-      </c>
-      <c r="D190" t="s">
-        <v>47</v>
-      </c>
-      <c r="E190" t="s">
-        <v>63</v>
-      </c>
-      <c r="F190" t="s">
-        <v>12</v>
-      </c>
-      <c r="G190">
-        <v>36.190837860000002</v>
-      </c>
-      <c r="H190">
-        <v>34.39385223</v>
-      </c>
-      <c r="I190">
-        <v>27.089872360000001</v>
-      </c>
-      <c r="J190" t="s">
-        <v>18</v>
-      </c>
-      <c r="K190" t="s">
-        <v>18</v>
-      </c>
-      <c r="L190" t="s">
-        <v>18</v>
-      </c>
-      <c r="M190" t="s">
-        <v>18</v>
-      </c>
-      <c r="N190" t="s">
-        <v>18</v>
-      </c>
-      <c r="O190" t="s">
-        <v>18</v>
-      </c>
-      <c r="P190" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q190" t="s">
-        <v>18</v>
-      </c>
-      <c r="R190" t="s">
-        <v>18</v>
-      </c>
-      <c r="S190" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="191" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A191">
-        <v>64</v>
-      </c>
-      <c r="B191" t="s">
-        <v>27</v>
-      </c>
-      <c r="C191" t="s">
-        <v>46</v>
-      </c>
-      <c r="D191" t="s">
-        <v>47</v>
-      </c>
-      <c r="E191" t="s">
-        <v>63</v>
-      </c>
-      <c r="F191" t="s">
-        <v>12</v>
-      </c>
-      <c r="G191">
-        <v>35.106468200000002</v>
-      </c>
-      <c r="H191">
-        <v>35.88806915</v>
-      </c>
-      <c r="I191">
-        <v>24.996665950000001</v>
-      </c>
-      <c r="J191" t="s">
-        <v>18</v>
-      </c>
-      <c r="K191" t="s">
-        <v>18</v>
-      </c>
-      <c r="L191" t="s">
-        <v>18</v>
-      </c>
-      <c r="M191" t="s">
-        <v>18</v>
-      </c>
-      <c r="N191" t="s">
-        <v>18</v>
-      </c>
-      <c r="O191" t="s">
-        <v>18</v>
-      </c>
-      <c r="P191" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q191" t="s">
-        <v>18</v>
-      </c>
-      <c r="R191" t="s">
-        <v>18</v>
-      </c>
-      <c r="S191" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="192" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A192">
-        <v>64</v>
-      </c>
-      <c r="B192" t="s">
-        <v>27</v>
-      </c>
-      <c r="C192" t="s">
-        <v>46</v>
-      </c>
-      <c r="D192" t="s">
-        <v>47</v>
-      </c>
-      <c r="E192" t="s">
-        <v>63</v>
-      </c>
-      <c r="F192" t="s">
-        <v>12</v>
-      </c>
-      <c r="G192">
-        <v>35.027656559999997</v>
-      </c>
-      <c r="H192">
-        <v>34.751880649999997</v>
-      </c>
-      <c r="I192">
-        <v>25.013410570000001</v>
-      </c>
-      <c r="J192" t="s">
-        <v>18</v>
-      </c>
-      <c r="K192" t="s">
-        <v>18</v>
-      </c>
-      <c r="L192" t="s">
-        <v>18</v>
-      </c>
-      <c r="M192" t="s">
-        <v>18</v>
-      </c>
-      <c r="N192" t="s">
-        <v>18</v>
-      </c>
-      <c r="O192" t="s">
-        <v>18</v>
-      </c>
-      <c r="P192" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q192" t="s">
-        <v>18</v>
-      </c>
-      <c r="R192" t="s">
-        <v>18</v>
-      </c>
-      <c r="S192" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="193" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A193">
-        <v>64</v>
-      </c>
-      <c r="B193" t="s">
-        <v>27</v>
-      </c>
-      <c r="C193" t="s">
-        <v>46</v>
-      </c>
-      <c r="D193" t="s">
-        <v>47</v>
-      </c>
-      <c r="E193" t="s">
-        <v>63</v>
-      </c>
-      <c r="F193" t="s">
-        <v>12</v>
-      </c>
-      <c r="G193">
-        <v>35.234077450000001</v>
-      </c>
-      <c r="H193">
-        <v>35.141704560000001</v>
-      </c>
-      <c r="I193">
-        <v>25.105531689999999</v>
-      </c>
-      <c r="J193" t="s">
-        <v>18</v>
-      </c>
-      <c r="K193" t="s">
-        <v>18</v>
-      </c>
-      <c r="L193" t="s">
-        <v>18</v>
-      </c>
-      <c r="M193" t="s">
-        <v>18</v>
-      </c>
-      <c r="N193" t="s">
-        <v>18</v>
-      </c>
-      <c r="O193" t="s">
-        <v>18</v>
-      </c>
-      <c r="P193" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q193" t="s">
-        <v>18</v>
-      </c>
-      <c r="R193" t="s">
-        <v>18</v>
-      </c>
-      <c r="S193" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="194" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A194">
-        <v>65</v>
-      </c>
-      <c r="B194" t="s">
-        <v>33</v>
-      </c>
-      <c r="C194" t="s">
-        <v>46</v>
-      </c>
-      <c r="D194" t="s">
-        <v>47</v>
-      </c>
-      <c r="E194" t="s">
-        <v>63</v>
-      </c>
-      <c r="F194" t="s">
-        <v>12</v>
-      </c>
-      <c r="G194">
-        <v>-1</v>
-      </c>
-      <c r="H194">
-        <v>-1</v>
-      </c>
-      <c r="I194">
-        <v>26.066410059999999</v>
-      </c>
-      <c r="J194" t="s">
-        <v>18</v>
-      </c>
-      <c r="K194" t="s">
-        <v>18</v>
-      </c>
-      <c r="L194" t="s">
-        <v>18</v>
-      </c>
-      <c r="M194" t="s">
-        <v>18</v>
-      </c>
-      <c r="N194" t="s">
-        <v>18</v>
-      </c>
-      <c r="O194" t="s">
-        <v>18</v>
-      </c>
-      <c r="P194" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q194" t="s">
-        <v>18</v>
-      </c>
-      <c r="R194" t="s">
-        <v>18</v>
-      </c>
-      <c r="S194" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="195" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A195">
-        <v>65</v>
-      </c>
-      <c r="B195" t="s">
-        <v>33</v>
-      </c>
-      <c r="C195" t="s">
-        <v>46</v>
-      </c>
-      <c r="D195" t="s">
-        <v>47</v>
-      </c>
-      <c r="E195" t="s">
-        <v>63</v>
-      </c>
-      <c r="F195" t="s">
-        <v>12</v>
-      </c>
-      <c r="G195">
-        <v>36.25031662</v>
-      </c>
-      <c r="H195">
-        <v>36.338298799999997</v>
-      </c>
-      <c r="I195">
-        <v>26.112880709999999</v>
-      </c>
-      <c r="J195" t="s">
-        <v>18</v>
-      </c>
-      <c r="K195" t="s">
-        <v>18</v>
-      </c>
-      <c r="L195" t="s">
-        <v>18</v>
-      </c>
-      <c r="M195" t="s">
-        <v>18</v>
-      </c>
-      <c r="N195" t="s">
-        <v>18</v>
-      </c>
-      <c r="O195" t="s">
-        <v>18</v>
-      </c>
-      <c r="P195" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q195" t="s">
-        <v>18</v>
-      </c>
-      <c r="R195" t="s">
-        <v>18</v>
-      </c>
-      <c r="S195" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="196" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A196">
-        <v>65</v>
-      </c>
-      <c r="B196" t="s">
-        <v>33</v>
-      </c>
-      <c r="C196" t="s">
-        <v>46</v>
-      </c>
-      <c r="D196" t="s">
-        <v>47</v>
-      </c>
-      <c r="E196" t="s">
-        <v>63</v>
-      </c>
-      <c r="F196" t="s">
-        <v>12</v>
-      </c>
-      <c r="G196">
-        <v>-1</v>
-      </c>
-      <c r="H196">
-        <v>-1</v>
-      </c>
-      <c r="I196">
-        <v>26.135908130000001</v>
-      </c>
-      <c r="J196" t="s">
-        <v>18</v>
-      </c>
-      <c r="K196" t="s">
-        <v>18</v>
-      </c>
-      <c r="L196" t="s">
-        <v>18</v>
-      </c>
-      <c r="M196" t="s">
-        <v>18</v>
-      </c>
-      <c r="N196" t="s">
-        <v>18</v>
-      </c>
-      <c r="O196" t="s">
-        <v>18</v>
-      </c>
-      <c r="P196" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q196" t="s">
-        <v>18</v>
-      </c>
-      <c r="R196" t="s">
-        <v>18</v>
-      </c>
-      <c r="S196" t="s">
         <v>18</v>
       </c>
     </row>
@@ -11951,7 +9778,7 @@
       <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
@@ -12425,42 +10252,42 @@
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="C16" t="s">
         <v>0</v>
       </c>
       <c r="D16" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="E16" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="F16" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="G16" t="s">
-        <v>57</v>
+        <v>40</v>
       </c>
       <c r="H16" t="s">
-        <v>58</v>
+        <v>41</v>
       </c>
       <c r="I16" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="J16" t="s">
-        <v>60</v>
+        <v>43</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="B17" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="C17" t="s">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="D17" t="s">
         <v>18</v>
@@ -12486,13 +10313,13 @@
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="B18" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="C18" t="s">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="D18">
         <v>-1</v>
@@ -12518,13 +10345,13 @@
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>52</v>
+        <v>35</v>
       </c>
       <c r="B19" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="C19" t="s">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="D19">
         <v>-1</v>
